--- a/Excel/addresslist/SYMBOLタウンリスト.xlsx
+++ b/Excel/addresslist/SYMBOLタウンリスト.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lilly\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lilly\git\csharp\nagexym\Excel\addresslist\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FCA5B98-0BB1-43A1-8FB3-DB591B9DCA95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77E060D3-17FD-44AC-A158-C13BE78B6BAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1320" uniqueCount="1057">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1315" uniqueCount="1053">
   <si>
     <t>名前</t>
   </si>
@@ -650,15 +650,6 @@
   </si>
   <si>
     <t>https://pbs.twimg.com/profile_images/1495024026938667012/hxWux8MF_normal.png</t>
-  </si>
-  <si>
-    <t>keitashouma@NA7FQRMTOONCI5L5TFIJT3ECVUJR3V6SK7JSIK</t>
-  </si>
-  <si>
-    <t>https://twitter.com/keitashouma</t>
-  </si>
-  <si>
-    <t>https://pbs.twimg.com/profile_images/1395519841155485696/_-gEvnAf_normal.jpg</t>
   </si>
   <si>
     <t>リバイアサン</t>
@@ -3240,10 +3231,6 @@
   </si>
   <si>
     <t>NC54G7RPRR23GQ2E2SV4S4AI3GEGQQQPX47FONA</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>NA7FQRMTOONCI5L5TFIJT3ECVUJR3V6SK7JSIK</t>
     <phoneticPr fontId="4"/>
   </si>
   <si>
@@ -3688,10 +3675,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:H994"/>
+  <dimension ref="A1:H993"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A48" workbookViewId="0">
+      <selection activeCell="A57" sqref="A57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3722,10 +3709,10 @@
         <v>44963.064710185186</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>1031</v>
+        <v>1028</v>
       </c>
       <c r="H1" s="8" t="s">
-        <v>1032</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.4">
@@ -3747,7 +3734,7 @@
         <v>1</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>1037</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.4">
@@ -3769,7 +3756,7 @@
         <v>1</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>1037</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.4">
@@ -3791,7 +3778,7 @@
         <v>1</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>1037</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.4">
@@ -3813,7 +3800,7 @@
         <v>1</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>1037</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.4">
@@ -3835,7 +3822,7 @@
         <v>1</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>1037</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.4">
@@ -3857,7 +3844,7 @@
         <v>1</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>1037</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.4">
@@ -3879,7 +3866,7 @@
         <v>1</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>1037</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.4">
@@ -3901,7 +3888,7 @@
         <v>1</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>1037</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.4">
@@ -3923,7 +3910,7 @@
         <v>1</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>1037</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.4">
@@ -3945,7 +3932,7 @@
         <v>1</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>1037</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.4">
@@ -3967,7 +3954,7 @@
         <v>1</v>
       </c>
       <c r="H12" s="7" t="s">
-        <v>1037</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.4">
@@ -3989,7 +3976,7 @@
         <v>1</v>
       </c>
       <c r="H13" s="7" t="s">
-        <v>1037</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.4">
@@ -4011,7 +3998,7 @@
         <v>1</v>
       </c>
       <c r="H14" s="7" t="s">
-        <v>1037</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.4">
@@ -4033,7 +4020,7 @@
         <v>1</v>
       </c>
       <c r="H15" s="7" t="s">
-        <v>1037</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.4">
@@ -4055,7 +4042,7 @@
         <v>1</v>
       </c>
       <c r="H16" s="7" t="s">
-        <v>1037</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.4">
@@ -4077,7 +4064,7 @@
         <v>1</v>
       </c>
       <c r="H17" s="7" t="s">
-        <v>1037</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.4">
@@ -4099,7 +4086,7 @@
         <v>1</v>
       </c>
       <c r="H18" s="7" t="s">
-        <v>1037</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.4">
@@ -4121,7 +4108,7 @@
         <v>1</v>
       </c>
       <c r="H19" s="7" t="s">
-        <v>1037</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.4">
@@ -4143,7 +4130,7 @@
         <v>1</v>
       </c>
       <c r="H20" s="7" t="s">
-        <v>1037</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.4">
@@ -4165,7 +4152,7 @@
         <v>1</v>
       </c>
       <c r="H21" s="7" t="s">
-        <v>1037</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.4">
@@ -4187,7 +4174,7 @@
         <v>1</v>
       </c>
       <c r="H22" s="7" t="s">
-        <v>1037</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.4">
@@ -4209,7 +4196,7 @@
         <v>1</v>
       </c>
       <c r="H23" s="7" t="s">
-        <v>1037</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.4">
@@ -4231,7 +4218,7 @@
         <v>1</v>
       </c>
       <c r="H24" s="7" t="s">
-        <v>1037</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.4">
@@ -4253,7 +4240,7 @@
         <v>1</v>
       </c>
       <c r="H25" s="7" t="s">
-        <v>1037</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.4">
@@ -4275,7 +4262,7 @@
         <v>1</v>
       </c>
       <c r="H26" s="7" t="s">
-        <v>1037</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.4">
@@ -4297,7 +4284,7 @@
         <v>1</v>
       </c>
       <c r="H27" s="7" t="s">
-        <v>1037</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.4">
@@ -4319,7 +4306,7 @@
         <v>1</v>
       </c>
       <c r="H28" s="7" t="s">
-        <v>1037</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.4">
@@ -4341,7 +4328,7 @@
         <v>1</v>
       </c>
       <c r="H29" s="7" t="s">
-        <v>1037</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.4">
@@ -4363,7 +4350,7 @@
         <v>1</v>
       </c>
       <c r="H30" s="7" t="s">
-        <v>1037</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.4">
@@ -4385,7 +4372,7 @@
         <v>1</v>
       </c>
       <c r="H31" s="7" t="s">
-        <v>1037</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.4">
@@ -4407,7 +4394,7 @@
         <v>1</v>
       </c>
       <c r="H32" s="7" t="s">
-        <v>1037</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.4">
@@ -4429,7 +4416,7 @@
         <v>1</v>
       </c>
       <c r="H33" s="7" t="s">
-        <v>1037</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.4">
@@ -4451,7 +4438,7 @@
         <v>1</v>
       </c>
       <c r="H34" s="7" t="s">
-        <v>1037</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.4">
@@ -4473,7 +4460,7 @@
         <v>1</v>
       </c>
       <c r="H35" s="7" t="s">
-        <v>1037</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.4">
@@ -4495,7 +4482,7 @@
         <v>1</v>
       </c>
       <c r="H36" s="7" t="s">
-        <v>1037</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.4">
@@ -4517,7 +4504,7 @@
         <v>1</v>
       </c>
       <c r="H37" s="7" t="s">
-        <v>1037</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.4">
@@ -4539,7 +4526,7 @@
         <v>1</v>
       </c>
       <c r="H38" s="7" t="s">
-        <v>1037</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="39" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.4">
@@ -4561,7 +4548,7 @@
         <v>1</v>
       </c>
       <c r="H39" s="7" t="s">
-        <v>1037</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="40" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.4">
@@ -4583,7 +4570,7 @@
         <v>1</v>
       </c>
       <c r="H40" s="7" t="s">
-        <v>1037</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.4">
@@ -4605,7 +4592,7 @@
         <v>1</v>
       </c>
       <c r="H41" s="7" t="s">
-        <v>1037</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="42" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.4">
@@ -4620,14 +4607,14 @@
       </c>
       <c r="D42" s="4"/>
       <c r="E42" s="6" t="s">
-        <v>1038</v>
+        <v>1035</v>
       </c>
       <c r="F42" s="4"/>
       <c r="G42" s="6">
         <v>1</v>
       </c>
       <c r="H42" s="7" t="s">
-        <v>1037</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.4">
@@ -4649,7 +4636,7 @@
         <v>1</v>
       </c>
       <c r="H43" s="7" t="s">
-        <v>1037</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="44" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.4">
@@ -4671,12 +4658,12 @@
         <v>1</v>
       </c>
       <c r="H44" s="7" t="s">
-        <v>1037</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="45" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A45" s="11" t="s">
-        <v>1039</v>
+        <v>1036</v>
       </c>
       <c r="B45" s="5" t="s">
         <v>173</v>
@@ -4686,14 +4673,14 @@
       </c>
       <c r="D45" s="4"/>
       <c r="E45" s="6" t="s">
-        <v>1040</v>
+        <v>1037</v>
       </c>
       <c r="F45" s="4"/>
       <c r="G45" s="6">
         <v>1</v>
       </c>
       <c r="H45" s="7" t="s">
-        <v>1037</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="46" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.4">
@@ -4715,7 +4702,7 @@
         <v>1</v>
       </c>
       <c r="H46" s="7" t="s">
-        <v>1037</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="47" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.4">
@@ -4737,7 +4724,7 @@
         <v>1</v>
       </c>
       <c r="H47" s="7" t="s">
-        <v>1037</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="48" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.4">
@@ -4759,7 +4746,7 @@
         <v>1</v>
       </c>
       <c r="H48" s="7" t="s">
-        <v>1037</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="49" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.4">
@@ -4781,7 +4768,7 @@
         <v>1</v>
       </c>
       <c r="H49" s="7" t="s">
-        <v>1037</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="50" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.4">
@@ -4803,7 +4790,7 @@
         <v>1</v>
       </c>
       <c r="H50" s="7" t="s">
-        <v>1037</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="51" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.4">
@@ -4825,7 +4812,7 @@
         <v>1</v>
       </c>
       <c r="H51" s="7" t="s">
-        <v>1037</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="52" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.4">
@@ -4847,7 +4834,7 @@
         <v>1</v>
       </c>
       <c r="H52" s="7" t="s">
-        <v>1037</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="53" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.4">
@@ -4869,7 +4856,7 @@
         <v>1</v>
       </c>
       <c r="H53" s="7" t="s">
-        <v>1037</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="54" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.4">
@@ -4884,14 +4871,14 @@
       </c>
       <c r="D54" s="4"/>
       <c r="E54" s="6" t="s">
-        <v>1041</v>
+        <v>1038</v>
       </c>
       <c r="F54" s="4"/>
       <c r="G54" s="6">
         <v>1</v>
       </c>
       <c r="H54" s="7" t="s">
-        <v>1037</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="55" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.4">
@@ -4906,14 +4893,14 @@
       </c>
       <c r="D55" s="4"/>
       <c r="E55" s="6" t="s">
-        <v>1042</v>
+        <v>1039</v>
       </c>
       <c r="F55" s="4"/>
       <c r="G55" s="6">
         <v>1</v>
       </c>
       <c r="H55" s="7" t="s">
-        <v>1037</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="56" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.4">
@@ -4927,103 +4914,103 @@
         <v>215</v>
       </c>
       <c r="D56" s="4"/>
-      <c r="E56" s="6" t="s">
-        <v>1043</v>
+      <c r="E56" s="4" t="s">
+        <v>216</v>
       </c>
       <c r="F56" s="4"/>
       <c r="G56" s="6">
         <v>1</v>
       </c>
       <c r="H56" s="7" t="s">
-        <v>1037</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="57" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A57" s="4" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D57" s="4"/>
       <c r="E57" s="4" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="F57" s="4"/>
       <c r="G57" s="6">
         <v>1</v>
       </c>
       <c r="H57" s="7" t="s">
-        <v>1037</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="58" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A58" s="4" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C58" s="5" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D58" s="4"/>
       <c r="E58" s="4" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="F58" s="4"/>
       <c r="G58" s="6">
         <v>1</v>
       </c>
       <c r="H58" s="7" t="s">
-        <v>1037</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="59" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A59" s="4" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C59" s="5" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D59" s="4"/>
       <c r="E59" s="4" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="F59" s="4"/>
       <c r="G59" s="6">
         <v>1</v>
       </c>
       <c r="H59" s="7" t="s">
-        <v>1037</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="60" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A60" s="4" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C60" s="5" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D60" s="4"/>
       <c r="E60" s="4" t="s">
-        <v>231</v>
+        <v>1040</v>
       </c>
       <c r="F60" s="4"/>
       <c r="G60" s="6">
         <v>1</v>
       </c>
       <c r="H60" s="7" t="s">
-        <v>1037</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="61" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.4">
@@ -5038,630 +5025,630 @@
       </c>
       <c r="D61" s="4"/>
       <c r="E61" s="4" t="s">
-        <v>1044</v>
+        <v>235</v>
       </c>
       <c r="F61" s="4"/>
       <c r="G61" s="6">
         <v>1</v>
       </c>
       <c r="H61" s="7" t="s">
-        <v>1037</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="62" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A62" s="4" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C62" s="5" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D62" s="4"/>
       <c r="E62" s="4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="F62" s="4"/>
       <c r="G62" s="6">
         <v>1</v>
       </c>
       <c r="H62" s="7" t="s">
-        <v>1037</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="63" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A63" s="4" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="D63" s="4"/>
       <c r="E63" s="4" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="F63" s="4"/>
       <c r="G63" s="6">
         <v>1</v>
       </c>
       <c r="H63" s="7" t="s">
-        <v>1037</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="64" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A64" s="4" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C64" s="5" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D64" s="4"/>
       <c r="E64" s="4" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="F64" s="4"/>
       <c r="G64" s="6">
         <v>1</v>
       </c>
       <c r="H64" s="7" t="s">
-        <v>1037</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="65" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A65" s="4" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C65" s="5" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D65" s="4"/>
       <c r="E65" s="4" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="F65" s="4"/>
       <c r="G65" s="6">
         <v>1</v>
       </c>
       <c r="H65" s="7" t="s">
-        <v>1037</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="66" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A66" s="4" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C66" s="5" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="D66" s="4"/>
       <c r="E66" s="4" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="F66" s="4"/>
       <c r="G66" s="6">
         <v>1</v>
       </c>
       <c r="H66" s="7" t="s">
-        <v>1037</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="67" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A67" s="4" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C67" s="5" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="D67" s="4"/>
       <c r="E67" s="4" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="F67" s="4"/>
       <c r="G67" s="6">
         <v>1</v>
       </c>
       <c r="H67" s="7" t="s">
-        <v>1037</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="68" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A68" s="4" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C68" s="5" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D68" s="4"/>
       <c r="E68" s="4" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="F68" s="4"/>
       <c r="G68" s="6">
         <v>1</v>
       </c>
       <c r="H68" s="7" t="s">
-        <v>1037</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="69" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A69" s="4" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C69" s="5" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D69" s="4"/>
       <c r="E69" s="4" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="F69" s="4"/>
       <c r="G69" s="6">
         <v>1</v>
       </c>
       <c r="H69" s="7" t="s">
-        <v>1037</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="70" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A70" s="4" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B70" s="5" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C70" s="5" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D70" s="4"/>
       <c r="E70" s="4" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="F70" s="4"/>
       <c r="G70" s="6">
         <v>1</v>
       </c>
       <c r="H70" s="7" t="s">
-        <v>1037</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="71" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A71" s="4" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B71" s="5" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C71" s="5" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D71" s="4"/>
       <c r="E71" s="4" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="F71" s="4"/>
       <c r="G71" s="6">
         <v>1</v>
       </c>
       <c r="H71" s="7" t="s">
-        <v>1037</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="72" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A72" s="4" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B72" s="5" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C72" s="5" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="D72" s="4"/>
       <c r="E72" s="4" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="F72" s="4"/>
       <c r="G72" s="6">
         <v>1</v>
       </c>
       <c r="H72" s="7" t="s">
-        <v>1037</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="73" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A73" s="4" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B73" s="5" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C73" s="5" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="D73" s="4"/>
       <c r="E73" s="4" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="F73" s="4"/>
       <c r="G73" s="6">
         <v>1</v>
       </c>
       <c r="H73" s="7" t="s">
-        <v>1037</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="74" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A74" s="4" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B74" s="5" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C74" s="5" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="D74" s="4"/>
       <c r="E74" s="4" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="F74" s="4"/>
       <c r="G74" s="6">
         <v>1</v>
       </c>
       <c r="H74" s="7" t="s">
-        <v>1037</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="75" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A75" s="4" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B75" s="5" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C75" s="5" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="D75" s="4"/>
       <c r="E75" s="4" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="F75" s="4"/>
       <c r="G75" s="6">
         <v>1</v>
       </c>
       <c r="H75" s="7" t="s">
-        <v>1037</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="76" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A76" s="4" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B76" s="5" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C76" s="5" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="D76" s="4"/>
       <c r="E76" s="4" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="F76" s="4"/>
       <c r="G76" s="6">
         <v>1</v>
       </c>
       <c r="H76" s="7" t="s">
-        <v>1037</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="77" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A77" s="4" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B77" s="5" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C77" s="5" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="D77" s="4"/>
       <c r="E77" s="4" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="F77" s="4"/>
       <c r="G77" s="6">
         <v>1</v>
       </c>
       <c r="H77" s="7" t="s">
-        <v>1037</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="78" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A78" s="4" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B78" s="5" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C78" s="5" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="D78" s="4"/>
       <c r="E78" s="4" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="F78" s="4"/>
       <c r="G78" s="6">
         <v>1</v>
       </c>
       <c r="H78" s="7" t="s">
-        <v>1037</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="79" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A79" s="4" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B79" s="5" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C79" s="5" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="D79" s="4"/>
       <c r="E79" s="4" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="F79" s="4"/>
       <c r="G79" s="6">
         <v>1</v>
       </c>
       <c r="H79" s="7" t="s">
-        <v>1037</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="80" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A80" s="4" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B80" s="5" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="C80" s="5" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="D80" s="4"/>
       <c r="E80" s="4" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="F80" s="4"/>
       <c r="G80" s="6">
         <v>1</v>
       </c>
       <c r="H80" s="7" t="s">
-        <v>1037</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="81" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A81" s="4" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B81" s="5" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="C81" s="5" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="D81" s="4"/>
       <c r="E81" s="4" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="F81" s="4"/>
       <c r="G81" s="6">
         <v>1</v>
       </c>
       <c r="H81" s="7" t="s">
-        <v>1037</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="82" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A82" s="4" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="B82" s="5" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="C82" s="5" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="D82" s="4"/>
       <c r="E82" s="4" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="F82" s="4"/>
       <c r="G82" s="6">
         <v>1</v>
       </c>
       <c r="H82" s="7" t="s">
-        <v>1037</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="83" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A83" s="4" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B83" s="5" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C83" s="5" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="D83" s="4"/>
       <c r="E83" s="4" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="F83" s="4"/>
       <c r="G83" s="6">
         <v>1</v>
       </c>
       <c r="H83" s="7" t="s">
-        <v>1037</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="84" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A84" s="4" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B84" s="5" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C84" s="5" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="D84" s="4"/>
       <c r="E84" s="4" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="F84" s="4"/>
       <c r="G84" s="6">
         <v>1</v>
       </c>
       <c r="H84" s="7" t="s">
-        <v>1037</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="85" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A85" s="4" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B85" s="5" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="C85" s="5" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="D85" s="4"/>
       <c r="E85" s="4" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="F85" s="4"/>
       <c r="G85" s="6">
         <v>1</v>
       </c>
       <c r="H85" s="7" t="s">
-        <v>1037</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="86" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A86" s="4" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B86" s="5" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C86" s="5" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="D86" s="4"/>
       <c r="E86" s="4" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="F86" s="4"/>
       <c r="G86" s="6">
         <v>1</v>
       </c>
       <c r="H86" s="7" t="s">
-        <v>1037</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="87" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A87" s="4" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B87" s="5" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="C87" s="5" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="D87" s="4"/>
       <c r="E87" s="4" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="F87" s="4"/>
       <c r="G87" s="6">
         <v>1</v>
       </c>
       <c r="H87" s="7" t="s">
-        <v>1037</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="88" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A88" s="4" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="B88" s="5" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="C88" s="5" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="D88" s="4"/>
       <c r="E88" s="4" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="F88" s="4"/>
       <c r="G88" s="6">
         <v>1</v>
       </c>
       <c r="H88" s="7" t="s">
-        <v>1037</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="89" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A89" s="4" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="B89" s="5" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="C89" s="5" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="D89" s="4"/>
       <c r="E89" s="4" t="s">
-        <v>346</v>
+        <v>1041</v>
       </c>
       <c r="F89" s="4"/>
       <c r="G89" s="6">
         <v>1</v>
       </c>
       <c r="H89" s="7" t="s">
-        <v>1037</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="90" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.4">
@@ -5676,1180 +5663,1180 @@
       </c>
       <c r="D90" s="4"/>
       <c r="E90" s="4" t="s">
-        <v>1045</v>
+        <v>350</v>
       </c>
       <c r="F90" s="4"/>
       <c r="G90" s="6">
         <v>1</v>
       </c>
       <c r="H90" s="7" t="s">
-        <v>1037</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="91" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A91" s="4" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B91" s="5" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="C91" s="5" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="D91" s="4"/>
       <c r="E91" s="4" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="F91" s="4"/>
       <c r="G91" s="6">
         <v>1</v>
       </c>
       <c r="H91" s="7" t="s">
-        <v>1037</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="92" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A92" s="4" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B92" s="5" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="C92" s="5" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="D92" s="4"/>
       <c r="E92" s="4" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="F92" s="4"/>
       <c r="G92" s="6">
         <v>1</v>
       </c>
       <c r="H92" s="7" t="s">
-        <v>1037</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="93" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A93" s="4" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="B93" s="5" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="C93" s="5" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="D93" s="4"/>
       <c r="E93" s="4" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="F93" s="4"/>
       <c r="G93" s="6">
         <v>1</v>
       </c>
       <c r="H93" s="7" t="s">
-        <v>1037</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="94" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A94" s="4" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B94" s="5" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="C94" s="5" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="D94" s="4"/>
       <c r="E94" s="4" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="F94" s="4"/>
       <c r="G94" s="6">
         <v>1</v>
       </c>
       <c r="H94" s="7" t="s">
-        <v>1037</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="95" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A95" s="4" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="B95" s="5" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C95" s="5" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="D95" s="4"/>
       <c r="E95" s="4" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="F95" s="4"/>
       <c r="G95" s="6">
         <v>1</v>
       </c>
       <c r="H95" s="7" t="s">
-        <v>1037</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="96" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A96" s="4" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="B96" s="5" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="C96" s="5" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="D96" s="4"/>
       <c r="E96" s="4" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="F96" s="4"/>
       <c r="G96" s="6">
         <v>1</v>
       </c>
       <c r="H96" s="7" t="s">
-        <v>1037</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="97" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A97" s="4" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="B97" s="5" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="C97" s="5" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="D97" s="4"/>
       <c r="E97" s="4" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="F97" s="4"/>
       <c r="G97" s="6">
         <v>1</v>
       </c>
       <c r="H97" s="7" t="s">
-        <v>1037</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="98" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A98" s="4" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="B98" s="5" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="C98" s="5" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="D98" s="4"/>
       <c r="E98" s="4" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="F98" s="4"/>
       <c r="G98" s="6">
         <v>1</v>
       </c>
       <c r="H98" s="7" t="s">
-        <v>1037</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="99" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A99" s="4" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="B99" s="5" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="C99" s="5" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="D99" s="4"/>
       <c r="E99" s="4" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="F99" s="4"/>
       <c r="G99" s="6">
         <v>1</v>
       </c>
       <c r="H99" s="7" t="s">
-        <v>1037</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="100" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A100" s="4" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="B100" s="5" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="C100" s="5" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="D100" s="4"/>
       <c r="E100" s="4" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="F100" s="4"/>
       <c r="G100" s="6">
         <v>1</v>
       </c>
       <c r="H100" s="7" t="s">
-        <v>1037</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="101" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A101" s="4" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="B101" s="5" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="C101" s="5" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="D101" s="4"/>
       <c r="E101" s="4" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="F101" s="4"/>
       <c r="G101" s="6">
         <v>1</v>
       </c>
       <c r="H101" s="7" t="s">
-        <v>1037</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="102" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A102" s="4" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B102" s="5" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="C102" s="5" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="D102" s="4"/>
       <c r="E102" s="4" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="F102" s="4"/>
       <c r="G102" s="6">
         <v>1</v>
       </c>
       <c r="H102" s="7" t="s">
-        <v>1037</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="103" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A103" s="4" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="B103" s="5" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="C103" s="5" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="D103" s="4"/>
       <c r="E103" s="4" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="F103" s="4"/>
       <c r="G103" s="6">
         <v>1</v>
       </c>
       <c r="H103" s="7" t="s">
-        <v>1037</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="104" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A104" s="4" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="B104" s="5" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="C104" s="5" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="D104" s="4"/>
       <c r="E104" s="4" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="F104" s="4"/>
       <c r="G104" s="6">
         <v>1</v>
       </c>
       <c r="H104" s="7" t="s">
-        <v>1037</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="105" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A105" s="4" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="B105" s="5" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="C105" s="5" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="D105" s="4"/>
       <c r="E105" s="4" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="F105" s="4"/>
       <c r="G105" s="6">
         <v>1</v>
       </c>
       <c r="H105" s="7" t="s">
-        <v>1037</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="106" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A106" s="4" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="B106" s="5" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="C106" s="5" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="D106" s="4"/>
       <c r="E106" s="4" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="F106" s="4"/>
       <c r="G106" s="6">
         <v>1</v>
       </c>
       <c r="H106" s="7" t="s">
-        <v>1037</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="107" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A107" s="4" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="B107" s="5" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C107" s="5" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="D107" s="4"/>
       <c r="E107" s="4" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="F107" s="4"/>
       <c r="G107" s="6">
         <v>1</v>
       </c>
       <c r="H107" s="7" t="s">
-        <v>1037</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="108" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A108" s="4" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="B108" s="5" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="C108" s="5" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="D108" s="4"/>
       <c r="E108" s="4" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="F108" s="4"/>
       <c r="G108" s="6">
         <v>1</v>
       </c>
       <c r="H108" s="7" t="s">
-        <v>1037</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="109" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A109" s="4" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="B109" s="5" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="C109" s="5" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="D109" s="4"/>
       <c r="E109" s="4" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="F109" s="4"/>
       <c r="G109" s="6">
         <v>1</v>
       </c>
       <c r="H109" s="7" t="s">
-        <v>1037</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="110" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A110" s="4" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="B110" s="5" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="C110" s="5" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="D110" s="4"/>
       <c r="E110" s="4" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="F110" s="4"/>
       <c r="G110" s="6">
         <v>1</v>
       </c>
       <c r="H110" s="7" t="s">
-        <v>1037</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="111" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A111" s="4" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B111" s="5" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="C111" s="5" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="D111" s="4"/>
       <c r="E111" s="4" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="F111" s="4"/>
       <c r="G111" s="6">
         <v>1</v>
       </c>
       <c r="H111" s="7" t="s">
-        <v>1037</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="112" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A112" s="4" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B112" s="5" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="C112" s="5" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="D112" s="4"/>
       <c r="E112" s="4" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="F112" s="4"/>
       <c r="G112" s="6">
         <v>1</v>
       </c>
       <c r="H112" s="7" t="s">
-        <v>1037</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="113" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A113" s="4" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="B113" s="5" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="C113" s="5" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="D113" s="4"/>
       <c r="E113" s="4" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="F113" s="4"/>
       <c r="G113" s="6">
         <v>1</v>
       </c>
       <c r="H113" s="7" t="s">
-        <v>1037</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="114" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A114" s="4" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="B114" s="5" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="C114" s="5" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="D114" s="4"/>
       <c r="E114" s="4" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="F114" s="4"/>
       <c r="G114" s="6">
         <v>1</v>
       </c>
       <c r="H114" s="7" t="s">
-        <v>1037</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="115" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A115" s="4" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="B115" s="5" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="C115" s="5" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="D115" s="4"/>
       <c r="E115" s="4" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="F115" s="4"/>
       <c r="G115" s="6">
         <v>1</v>
       </c>
       <c r="H115" s="7" t="s">
-        <v>1037</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="116" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A116" s="4" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="B116" s="5" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="C116" s="5" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="D116" s="4"/>
       <c r="E116" s="4" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="F116" s="4"/>
       <c r="G116" s="6">
         <v>1</v>
       </c>
       <c r="H116" s="7" t="s">
-        <v>1037</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="117" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A117" s="4" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="B117" s="5" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="C117" s="5" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="D117" s="4"/>
       <c r="E117" s="4" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="F117" s="4"/>
       <c r="G117" s="6">
         <v>1</v>
       </c>
       <c r="H117" s="7" t="s">
-        <v>1037</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="118" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A118" s="4" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="B118" s="5" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="C118" s="5" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="D118" s="4"/>
       <c r="E118" s="4" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="F118" s="4"/>
       <c r="G118" s="6">
         <v>1</v>
       </c>
       <c r="H118" s="7" t="s">
-        <v>1037</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="119" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A119" s="4" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="B119" s="5" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="C119" s="5" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="D119" s="4"/>
       <c r="E119" s="4" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="F119" s="4"/>
       <c r="G119" s="6">
         <v>1</v>
       </c>
       <c r="H119" s="7" t="s">
-        <v>1037</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="120" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A120" s="4" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="B120" s="5" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="C120" s="5" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="D120" s="4"/>
       <c r="E120" s="4" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="F120" s="4"/>
       <c r="G120" s="6">
         <v>1</v>
       </c>
       <c r="H120" s="7" t="s">
-        <v>1037</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="121" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A121" s="4" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="B121" s="5" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="C121" s="5" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="D121" s="4"/>
       <c r="E121" s="4" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="F121" s="4"/>
       <c r="G121" s="6">
         <v>1</v>
       </c>
       <c r="H121" s="7" t="s">
-        <v>1037</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="122" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A122" s="4" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="B122" s="5" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="C122" s="5" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="D122" s="4"/>
       <c r="E122" s="4" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="F122" s="4"/>
       <c r="G122" s="6">
         <v>1</v>
       </c>
       <c r="H122" s="7" t="s">
-        <v>1037</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="123" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A123" s="4" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="B123" s="5" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="C123" s="5" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="D123" s="4"/>
       <c r="E123" s="4" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="F123" s="4"/>
       <c r="G123" s="6">
         <v>1</v>
       </c>
       <c r="H123" s="7" t="s">
-        <v>1037</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="124" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A124" s="4" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="B124" s="5" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="C124" s="5" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="D124" s="4"/>
       <c r="E124" s="4" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="F124" s="4"/>
       <c r="G124" s="6">
         <v>1</v>
       </c>
       <c r="H124" s="7" t="s">
-        <v>1037</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="125" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A125" s="4" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="B125" s="5" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="C125" s="5" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="D125" s="4"/>
       <c r="E125" s="4" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="F125" s="4"/>
       <c r="G125" s="6">
         <v>1</v>
       </c>
       <c r="H125" s="7" t="s">
-        <v>1037</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="126" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A126" s="4" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="B126" s="5" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="C126" s="5" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="D126" s="4"/>
       <c r="E126" s="4" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="F126" s="4"/>
       <c r="G126" s="6">
         <v>1</v>
       </c>
       <c r="H126" s="7" t="s">
-        <v>1037</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="127" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A127" s="4" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="B127" s="5" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="C127" s="5" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="D127" s="4"/>
       <c r="E127" s="4" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="F127" s="4"/>
       <c r="G127" s="6">
         <v>1</v>
       </c>
       <c r="H127" s="7" t="s">
-        <v>1037</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="128" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A128" s="4" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="B128" s="5" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="C128" s="5" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="D128" s="4"/>
       <c r="E128" s="4" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="F128" s="4"/>
       <c r="G128" s="6">
         <v>1</v>
       </c>
       <c r="H128" s="7" t="s">
-        <v>1037</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="129" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A129" s="4" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="B129" s="5" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="C129" s="5" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="D129" s="4"/>
       <c r="E129" s="4" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="F129" s="4"/>
       <c r="G129" s="6">
         <v>1</v>
       </c>
       <c r="H129" s="7" t="s">
-        <v>1037</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="130" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A130" s="4" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="B130" s="5" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="C130" s="5" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="D130" s="4"/>
       <c r="E130" s="4" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="F130" s="4"/>
       <c r="G130" s="6">
         <v>1</v>
       </c>
       <c r="H130" s="7" t="s">
-        <v>1037</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="131" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A131" s="4" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="B131" s="5" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="C131" s="5" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="D131" s="4"/>
       <c r="E131" s="4" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="F131" s="4"/>
       <c r="G131" s="6">
         <v>1</v>
       </c>
       <c r="H131" s="7" t="s">
-        <v>1037</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="132" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A132" s="4" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="B132" s="5" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="C132" s="5" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="D132" s="4"/>
       <c r="E132" s="4" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="F132" s="4"/>
       <c r="G132" s="6">
         <v>1</v>
       </c>
       <c r="H132" s="7" t="s">
-        <v>1037</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="133" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A133" s="4" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="B133" s="5" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="C133" s="5" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="D133" s="4"/>
       <c r="E133" s="4" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="F133" s="4"/>
       <c r="G133" s="6">
         <v>1</v>
       </c>
       <c r="H133" s="7" t="s">
-        <v>1037</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="134" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A134" s="4" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="B134" s="5" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="C134" s="5" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="D134" s="4"/>
       <c r="E134" s="4" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="F134" s="4"/>
       <c r="G134" s="6">
         <v>1</v>
       </c>
       <c r="H134" s="7" t="s">
-        <v>1037</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="135" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A135" s="4" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="B135" s="5" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="C135" s="5" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="D135" s="4"/>
       <c r="E135" s="4" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="F135" s="4"/>
       <c r="G135" s="6">
         <v>1</v>
       </c>
       <c r="H135" s="7" t="s">
-        <v>1037</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="136" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A136" s="4" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="B136" s="5" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="C136" s="5" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="D136" s="4"/>
       <c r="E136" s="4" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="F136" s="4"/>
       <c r="G136" s="6">
         <v>1</v>
       </c>
       <c r="H136" s="7" t="s">
-        <v>1037</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="137" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A137" s="4" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="B137" s="5" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="C137" s="5" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="D137" s="4"/>
       <c r="E137" s="4" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="F137" s="4"/>
       <c r="G137" s="6">
         <v>1</v>
       </c>
       <c r="H137" s="7" t="s">
-        <v>1037</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="138" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A138" s="4" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="B138" s="5" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="C138" s="5" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="D138" s="4"/>
       <c r="E138" s="4" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="F138" s="4"/>
       <c r="G138" s="6">
         <v>1</v>
       </c>
       <c r="H138" s="7" t="s">
-        <v>1037</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="139" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A139" s="4" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="B139" s="5" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="C139" s="5" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="D139" s="4"/>
       <c r="E139" s="4" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="F139" s="4"/>
       <c r="G139" s="6">
         <v>1</v>
       </c>
       <c r="H139" s="7" t="s">
-        <v>1037</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="140" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A140" s="4" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="B140" s="5" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="C140" s="5" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="D140" s="4"/>
       <c r="E140" s="4" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="F140" s="4"/>
       <c r="G140" s="6">
         <v>1</v>
       </c>
       <c r="H140" s="7" t="s">
-        <v>1037</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="141" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A141" s="4" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="B141" s="5" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="C141" s="5" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="D141" s="4"/>
       <c r="E141" s="4" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="F141" s="4"/>
       <c r="G141" s="6">
         <v>1</v>
       </c>
       <c r="H141" s="7" t="s">
-        <v>1037</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="142" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A142" s="4" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="B142" s="5" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="C142" s="5" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="D142" s="4"/>
       <c r="E142" s="4" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="F142" s="4"/>
       <c r="G142" s="6">
         <v>1</v>
       </c>
       <c r="H142" s="7" t="s">
-        <v>1037</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="143" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A143" s="4" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="B143" s="5" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="C143" s="5" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="D143" s="4"/>
-      <c r="E143" s="4" t="s">
-        <v>561</v>
+      <c r="E143" s="6" t="s">
+        <v>1042</v>
       </c>
       <c r="F143" s="4"/>
       <c r="G143" s="6">
         <v>1</v>
       </c>
       <c r="H143" s="7" t="s">
-        <v>1037</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="144" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.4">
@@ -6863,169 +6850,169 @@
         <v>564</v>
       </c>
       <c r="D144" s="4"/>
-      <c r="E144" s="6" t="s">
-        <v>1046</v>
+      <c r="E144" s="4" t="s">
+        <v>565</v>
       </c>
       <c r="F144" s="4"/>
       <c r="G144" s="6">
         <v>1</v>
       </c>
       <c r="H144" s="7" t="s">
-        <v>1037</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="145" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A145" s="4" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="B145" s="5" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="C145" s="5" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="D145" s="4"/>
       <c r="E145" s="4" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="F145" s="4"/>
       <c r="G145" s="6">
         <v>1</v>
       </c>
       <c r="H145" s="7" t="s">
-        <v>1037</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="146" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A146" s="4" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="B146" s="5" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="C146" s="5" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="D146" s="4"/>
       <c r="E146" s="4" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="F146" s="4"/>
       <c r="G146" s="6">
         <v>1</v>
       </c>
       <c r="H146" s="7" t="s">
-        <v>1037</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="147" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A147" s="4" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="B147" s="5" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="C147" s="5" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="D147" s="4"/>
       <c r="E147" s="4" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="F147" s="4"/>
       <c r="G147" s="6">
         <v>1</v>
       </c>
       <c r="H147" s="7" t="s">
-        <v>1037</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="148" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A148" s="4" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="B148" s="5" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="C148" s="5" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="D148" s="4"/>
       <c r="E148" s="4" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="F148" s="4"/>
       <c r="G148" s="6">
         <v>1</v>
       </c>
       <c r="H148" s="7" t="s">
-        <v>1037</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="149" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A149" s="4" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="B149" s="5" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="C149" s="5" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="D149" s="4"/>
       <c r="E149" s="4" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="F149" s="4"/>
       <c r="G149" s="6">
         <v>1</v>
       </c>
       <c r="H149" s="7" t="s">
-        <v>1037</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="150" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A150" s="4" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="B150" s="5" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="C150" s="5" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="D150" s="4"/>
       <c r="E150" s="4" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="F150" s="4"/>
       <c r="G150" s="6">
         <v>1</v>
       </c>
       <c r="H150" s="7" t="s">
-        <v>1037</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="151" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A151" s="4" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="B151" s="5" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="C151" s="5" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="D151" s="4"/>
-      <c r="E151" s="4" t="s">
-        <v>592</v>
+      <c r="E151" s="6" t="s">
+        <v>1043</v>
       </c>
       <c r="F151" s="4"/>
       <c r="G151" s="6">
         <v>1</v>
       </c>
       <c r="H151" s="7" t="s">
-        <v>1037</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="152" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.4">
@@ -7039,59 +7026,59 @@
         <v>595</v>
       </c>
       <c r="D152" s="4"/>
-      <c r="E152" s="6" t="s">
-        <v>1047</v>
+      <c r="E152" s="4" t="s">
+        <v>596</v>
       </c>
       <c r="F152" s="4"/>
       <c r="G152" s="6">
         <v>1</v>
       </c>
       <c r="H152" s="7" t="s">
-        <v>1037</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="153" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A153" s="4" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="B153" s="5" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="C153" s="5" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="D153" s="4"/>
       <c r="E153" s="4" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="F153" s="4"/>
       <c r="G153" s="6">
         <v>1</v>
       </c>
       <c r="H153" s="7" t="s">
-        <v>1037</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="154" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A154" s="4" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="B154" s="5" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="C154" s="5" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="D154" s="4"/>
-      <c r="E154" s="4" t="s">
-        <v>603</v>
+      <c r="E154" s="6" t="s">
+        <v>1044</v>
       </c>
       <c r="F154" s="4"/>
       <c r="G154" s="6">
         <v>1</v>
       </c>
       <c r="H154" s="7" t="s">
-        <v>1037</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="155" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.4">
@@ -7105,103 +7092,103 @@
         <v>606</v>
       </c>
       <c r="D155" s="4"/>
-      <c r="E155" s="6" t="s">
-        <v>1048</v>
+      <c r="E155" s="4" t="s">
+        <v>607</v>
       </c>
       <c r="F155" s="4"/>
       <c r="G155" s="6">
         <v>1</v>
       </c>
       <c r="H155" s="7" t="s">
-        <v>1037</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="156" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A156" s="4" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="B156" s="5" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="C156" s="5" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="D156" s="4"/>
       <c r="E156" s="4" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="F156" s="4"/>
       <c r="G156" s="6">
         <v>1</v>
       </c>
       <c r="H156" s="7" t="s">
-        <v>1037</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="157" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A157" s="4" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="B157" s="5" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="C157" s="5" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="D157" s="4"/>
       <c r="E157" s="4" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="F157" s="4"/>
       <c r="G157" s="6">
         <v>1</v>
       </c>
       <c r="H157" s="7" t="s">
-        <v>1037</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="158" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A158" s="4" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="B158" s="5" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="C158" s="5" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="D158" s="4"/>
       <c r="E158" s="4" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="F158" s="4"/>
       <c r="G158" s="6">
         <v>1</v>
       </c>
       <c r="H158" s="7" t="s">
-        <v>1037</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="159" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A159" s="4" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="B159" s="5" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="C159" s="5" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="D159" s="4"/>
       <c r="E159" s="4" t="s">
-        <v>622</v>
+        <v>1045</v>
       </c>
       <c r="F159" s="4"/>
       <c r="G159" s="6">
         <v>1</v>
       </c>
       <c r="H159" s="7" t="s">
-        <v>1037</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="160" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.4">
@@ -7216,102 +7203,102 @@
       </c>
       <c r="D160" s="4"/>
       <c r="E160" s="4" t="s">
-        <v>1049</v>
+        <v>626</v>
       </c>
       <c r="F160" s="4"/>
       <c r="G160" s="6">
         <v>1</v>
       </c>
       <c r="H160" s="7" t="s">
-        <v>1037</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="161" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A161" s="4" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="B161" s="5" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="C161" s="5" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="D161" s="4"/>
       <c r="E161" s="4" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="F161" s="4"/>
       <c r="G161" s="6">
         <v>1</v>
       </c>
       <c r="H161" s="7" t="s">
-        <v>1037</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="162" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A162" s="4" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="B162" s="5" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="C162" s="5" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="D162" s="4"/>
       <c r="E162" s="4" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="F162" s="4"/>
       <c r="G162" s="6">
         <v>1</v>
       </c>
       <c r="H162" s="7" t="s">
-        <v>1037</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="163" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A163" s="4" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="B163" s="5" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="C163" s="5" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="D163" s="4"/>
       <c r="E163" s="4" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="F163" s="4"/>
       <c r="G163" s="6">
         <v>1</v>
       </c>
       <c r="H163" s="7" t="s">
-        <v>1037</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="164" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A164" s="4" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="B164" s="5" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="C164" s="5" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="D164" s="4"/>
       <c r="E164" s="4" t="s">
-        <v>641</v>
+        <v>1046</v>
       </c>
       <c r="F164" s="4"/>
       <c r="G164" s="6">
         <v>1</v>
       </c>
       <c r="H164" s="7" t="s">
-        <v>1037</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="165" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.4">
@@ -7326,388 +7313,388 @@
       </c>
       <c r="D165" s="4"/>
       <c r="E165" s="4" t="s">
-        <v>1050</v>
+        <v>645</v>
       </c>
       <c r="F165" s="4"/>
       <c r="G165" s="6">
         <v>1</v>
       </c>
       <c r="H165" s="7" t="s">
-        <v>1037</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="166" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A166" s="4" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="B166" s="5" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="C166" s="5" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="D166" s="4"/>
       <c r="E166" s="4" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="F166" s="4"/>
       <c r="G166" s="6">
         <v>1</v>
       </c>
       <c r="H166" s="7" t="s">
-        <v>1037</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="167" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A167" s="4" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="B167" s="5" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="C167" s="5" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="D167" s="4"/>
       <c r="E167" s="4" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="F167" s="4"/>
       <c r="G167" s="6">
         <v>1</v>
       </c>
       <c r="H167" s="7" t="s">
-        <v>1037</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="168" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A168" s="4" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="B168" s="5" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="C168" s="5" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="D168" s="4"/>
       <c r="E168" s="4" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="F168" s="4"/>
       <c r="G168" s="6">
         <v>1</v>
       </c>
       <c r="H168" s="7" t="s">
-        <v>1037</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="169" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A169" s="4" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="B169" s="5" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="C169" s="5" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="D169" s="4"/>
       <c r="E169" s="4" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="F169" s="4"/>
       <c r="G169" s="6">
         <v>1</v>
       </c>
       <c r="H169" s="7" t="s">
-        <v>1037</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="170" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A170" s="4" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="B170" s="5" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="C170" s="5" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="D170" s="4"/>
       <c r="E170" s="4" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="F170" s="4"/>
       <c r="G170" s="6">
         <v>1</v>
       </c>
       <c r="H170" s="7" t="s">
-        <v>1037</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="171" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A171" s="4" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="B171" s="5" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="C171" s="5" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="D171" s="4"/>
       <c r="E171" s="4" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="F171" s="4"/>
       <c r="G171" s="6">
         <v>1</v>
       </c>
       <c r="H171" s="7" t="s">
-        <v>1037</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="172" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A172" s="4" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="B172" s="5" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="C172" s="5" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="D172" s="4"/>
       <c r="E172" s="4" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="F172" s="4"/>
       <c r="G172" s="6">
         <v>1</v>
       </c>
       <c r="H172" s="7" t="s">
-        <v>1037</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="173" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A173" s="4" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="B173" s="5" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="C173" s="5" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="D173" s="4"/>
       <c r="E173" s="4" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="F173" s="4"/>
       <c r="G173" s="6">
         <v>1</v>
       </c>
       <c r="H173" s="7" t="s">
-        <v>1037</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="174" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A174" s="4" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="B174" s="5" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="C174" s="5" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="D174" s="4"/>
       <c r="E174" s="4" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="F174" s="4"/>
       <c r="G174" s="6">
         <v>1</v>
       </c>
       <c r="H174" s="7" t="s">
-        <v>1037</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="175" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A175" s="4" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="B175" s="5" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="C175" s="5" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="D175" s="4"/>
       <c r="E175" s="4" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="F175" s="4"/>
       <c r="G175" s="6">
         <v>1</v>
       </c>
       <c r="H175" s="7" t="s">
-        <v>1037</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="176" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A176" s="4" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="B176" s="5" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="C176" s="5" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="D176" s="4"/>
       <c r="E176" s="4" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="F176" s="4"/>
       <c r="G176" s="6">
         <v>1</v>
       </c>
       <c r="H176" s="7" t="s">
-        <v>1037</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="177" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A177" s="4" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="B177" s="5" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="C177" s="5" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="D177" s="4"/>
       <c r="E177" s="4" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="F177" s="4"/>
       <c r="G177" s="6">
         <v>1</v>
       </c>
       <c r="H177" s="7" t="s">
-        <v>1037</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="178" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A178" s="4" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="B178" s="5" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="C178" s="5" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="D178" s="4"/>
       <c r="E178" s="4" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="F178" s="4"/>
       <c r="G178" s="6">
         <v>1</v>
       </c>
       <c r="H178" s="7" t="s">
-        <v>1037</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="179" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A179" s="4" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="B179" s="5" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="C179" s="5" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="D179" s="4"/>
       <c r="E179" s="4" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="F179" s="4"/>
       <c r="G179" s="6">
         <v>1</v>
       </c>
       <c r="H179" s="7" t="s">
-        <v>1037</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="180" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A180" s="4" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="B180" s="5" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="C180" s="5" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="D180" s="4"/>
       <c r="E180" s="4" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="F180" s="4"/>
       <c r="G180" s="6">
         <v>1</v>
       </c>
       <c r="H180" s="7" t="s">
-        <v>1037</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="181" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A181" s="4" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="B181" s="5" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="C181" s="5" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="D181" s="4"/>
       <c r="E181" s="4" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="F181" s="4"/>
       <c r="G181" s="6">
         <v>1</v>
       </c>
       <c r="H181" s="7" t="s">
-        <v>1037</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="182" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A182" s="4" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="B182" s="5" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="C182" s="5" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="D182" s="4"/>
       <c r="E182" s="4" t="s">
-        <v>712</v>
+        <v>1047</v>
       </c>
       <c r="F182" s="4"/>
       <c r="G182" s="6">
         <v>1</v>
       </c>
       <c r="H182" s="7" t="s">
-        <v>1037</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="183" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.4">
@@ -7722,366 +7709,366 @@
       </c>
       <c r="D183" s="4"/>
       <c r="E183" s="4" t="s">
-        <v>1051</v>
+        <v>716</v>
       </c>
       <c r="F183" s="4"/>
       <c r="G183" s="6">
         <v>1</v>
       </c>
       <c r="H183" s="7" t="s">
-        <v>1037</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="184" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A184" s="4" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="B184" s="5" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="C184" s="5" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="D184" s="4"/>
       <c r="E184" s="4" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="F184" s="4"/>
       <c r="G184" s="6">
         <v>1</v>
       </c>
       <c r="H184" s="7" t="s">
-        <v>1037</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="185" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A185" s="4" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="B185" s="5" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="C185" s="5" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="D185" s="4"/>
       <c r="E185" s="4" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="F185" s="4"/>
       <c r="G185" s="6">
         <v>1</v>
       </c>
       <c r="H185" s="7" t="s">
-        <v>1037</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="186" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A186" s="4" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="B186" s="5" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="C186" s="5" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="D186" s="4"/>
       <c r="E186" s="4" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="F186" s="4"/>
       <c r="G186" s="6">
         <v>1</v>
       </c>
       <c r="H186" s="7" t="s">
-        <v>1037</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="187" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A187" s="4" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="B187" s="5" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="C187" s="5" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="D187" s="4"/>
       <c r="E187" s="4" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="F187" s="4"/>
       <c r="G187" s="6">
         <v>1</v>
       </c>
       <c r="H187" s="7" t="s">
-        <v>1037</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="188" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A188" s="4" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="B188" s="5" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="C188" s="5" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="D188" s="4"/>
       <c r="E188" s="4" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="F188" s="4"/>
       <c r="G188" s="6">
         <v>1</v>
       </c>
       <c r="H188" s="7" t="s">
-        <v>1037</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="189" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A189" s="4" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="B189" s="5" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="C189" s="5" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="D189" s="4"/>
       <c r="E189" s="4" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="F189" s="4"/>
       <c r="G189" s="6">
         <v>1</v>
       </c>
       <c r="H189" s="7" t="s">
-        <v>1037</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="190" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A190" s="4" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="B190" s="5" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="C190" s="5" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="D190" s="4"/>
       <c r="E190" s="4" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="F190" s="4"/>
       <c r="G190" s="6">
         <v>1</v>
       </c>
       <c r="H190" s="7" t="s">
-        <v>1037</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="191" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A191" s="4" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="B191" s="5" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="C191" s="5" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="D191" s="4"/>
       <c r="E191" s="4" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="F191" s="4"/>
       <c r="G191" s="6">
         <v>1</v>
       </c>
       <c r="H191" s="7" t="s">
-        <v>1037</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="192" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A192" s="4" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="B192" s="5" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="C192" s="5" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="D192" s="4"/>
       <c r="E192" s="4" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="F192" s="4"/>
       <c r="G192" s="6">
         <v>1</v>
       </c>
       <c r="H192" s="7" t="s">
-        <v>1037</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="193" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A193" s="4" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="B193" s="5" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="C193" s="5" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="D193" s="4"/>
       <c r="E193" s="4" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="F193" s="4"/>
       <c r="G193" s="6">
         <v>1</v>
       </c>
       <c r="H193" s="7" t="s">
-        <v>1037</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="194" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A194" s="4" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="B194" s="5" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="C194" s="5" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="D194" s="4"/>
       <c r="E194" s="4" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="F194" s="4"/>
       <c r="G194" s="6">
         <v>1</v>
       </c>
       <c r="H194" s="7" t="s">
-        <v>1037</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="195" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A195" s="4" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="B195" s="5" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="C195" s="5" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="D195" s="4"/>
       <c r="E195" s="4" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="F195" s="4"/>
       <c r="G195" s="6">
         <v>1</v>
       </c>
       <c r="H195" s="7" t="s">
-        <v>1037</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="196" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A196" s="4" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="B196" s="5" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="C196" s="5" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="D196" s="4"/>
       <c r="E196" s="4" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="F196" s="4"/>
       <c r="G196" s="6">
         <v>1</v>
       </c>
       <c r="H196" s="7" t="s">
-        <v>1037</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="197" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A197" s="4" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="B197" s="5" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="C197" s="5" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="D197" s="4"/>
       <c r="E197" s="4" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="F197" s="4"/>
       <c r="G197" s="6">
         <v>1</v>
       </c>
       <c r="H197" s="7" t="s">
-        <v>1037</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="198" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A198" s="4" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="B198" s="5" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="C198" s="5" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="D198" s="4"/>
       <c r="E198" s="4" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="F198" s="4"/>
       <c r="G198" s="6">
         <v>1</v>
       </c>
       <c r="H198" s="7" t="s">
-        <v>1037</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="199" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A199" s="4" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="B199" s="5" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="C199" s="5" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="D199" s="4"/>
       <c r="E199" s="4" t="s">
-        <v>779</v>
+        <v>1048</v>
       </c>
       <c r="F199" s="4"/>
       <c r="G199" s="6">
         <v>1</v>
       </c>
       <c r="H199" s="7" t="s">
-        <v>1037</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="200" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.4">
@@ -8096,58 +8083,58 @@
       </c>
       <c r="D200" s="4"/>
       <c r="E200" s="4" t="s">
-        <v>1052</v>
+        <v>783</v>
       </c>
       <c r="F200" s="4"/>
       <c r="G200" s="6">
         <v>1</v>
       </c>
       <c r="H200" s="7" t="s">
-        <v>1037</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="201" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A201" s="4" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="B201" s="5" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="C201" s="5" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="D201" s="4"/>
       <c r="E201" s="4" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="F201" s="4"/>
       <c r="G201" s="6">
         <v>1</v>
       </c>
       <c r="H201" s="7" t="s">
-        <v>1037</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="202" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A202" s="4" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="B202" s="5" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="C202" s="5" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="D202" s="4"/>
       <c r="E202" s="4" t="s">
-        <v>790</v>
+        <v>1049</v>
       </c>
       <c r="F202" s="4"/>
       <c r="G202" s="6">
         <v>1</v>
       </c>
       <c r="H202" s="7" t="s">
-        <v>1037</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="203" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.4">
@@ -8162,168 +8149,168 @@
       </c>
       <c r="D203" s="4"/>
       <c r="E203" s="4" t="s">
-        <v>1053</v>
+        <v>794</v>
       </c>
       <c r="F203" s="4"/>
       <c r="G203" s="6">
         <v>1</v>
       </c>
       <c r="H203" s="7" t="s">
-        <v>1037</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="204" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A204" s="4" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="B204" s="5" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="C204" s="5" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="D204" s="4"/>
       <c r="E204" s="4" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="F204" s="4"/>
       <c r="G204" s="6">
         <v>1</v>
       </c>
       <c r="H204" s="7" t="s">
-        <v>1037</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="205" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A205" s="4" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="B205" s="5" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="C205" s="5" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="D205" s="4"/>
       <c r="E205" s="4" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="F205" s="4"/>
       <c r="G205" s="6">
         <v>1</v>
       </c>
       <c r="H205" s="7" t="s">
-        <v>1037</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="206" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A206" s="4" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="B206" s="5" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="C206" s="5" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="D206" s="4"/>
       <c r="E206" s="4" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="F206" s="4"/>
       <c r="G206" s="6">
         <v>1</v>
       </c>
       <c r="H206" s="7" t="s">
-        <v>1037</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="207" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A207" s="4" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="B207" s="5" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="C207" s="5" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="D207" s="4"/>
       <c r="E207" s="4" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="F207" s="4"/>
       <c r="G207" s="6">
         <v>1</v>
       </c>
       <c r="H207" s="7" t="s">
-        <v>1037</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="208" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A208" s="4" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="B208" s="5" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="C208" s="5" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="D208" s="4"/>
       <c r="E208" s="4" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="F208" s="4"/>
       <c r="G208" s="6">
         <v>1</v>
       </c>
       <c r="H208" s="7" t="s">
-        <v>1037</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="209" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A209" s="4" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="B209" s="5" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="C209" s="5" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="D209" s="4"/>
       <c r="E209" s="4" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="F209" s="4"/>
       <c r="G209" s="6">
         <v>1</v>
       </c>
       <c r="H209" s="7" t="s">
-        <v>1037</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="210" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A210" s="4" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="B210" s="5" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="C210" s="5" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="D210" s="4"/>
       <c r="E210" s="4" t="s">
-        <v>821</v>
+        <v>1050</v>
       </c>
       <c r="F210" s="4"/>
       <c r="G210" s="6">
         <v>1</v>
       </c>
       <c r="H210" s="7" t="s">
-        <v>1037</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="211" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.4">
@@ -8338,828 +8325,828 @@
       </c>
       <c r="D211" s="4"/>
       <c r="E211" s="4" t="s">
-        <v>1054</v>
+        <v>825</v>
       </c>
       <c r="F211" s="4"/>
       <c r="G211" s="6">
         <v>1</v>
       </c>
       <c r="H211" s="7" t="s">
-        <v>1037</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="212" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A212" s="4" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="B212" s="5" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="C212" s="5" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="D212" s="4"/>
       <c r="E212" s="4" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="F212" s="4"/>
       <c r="G212" s="6">
         <v>1</v>
       </c>
       <c r="H212" s="7" t="s">
-        <v>1037</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="213" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A213" s="4" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="B213" s="5" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="C213" s="5" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="D213" s="4"/>
       <c r="E213" s="4" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="F213" s="4"/>
       <c r="G213" s="6">
         <v>1</v>
       </c>
       <c r="H213" s="7" t="s">
-        <v>1037</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="214" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A214" s="4" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="B214" s="5" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="C214" s="5" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="D214" s="4"/>
       <c r="E214" s="4" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="F214" s="4"/>
       <c r="G214" s="6">
         <v>1</v>
       </c>
       <c r="H214" s="7" t="s">
-        <v>1037</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="215" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A215" s="4" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="B215" s="5" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="C215" s="5" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
       <c r="D215" s="4"/>
       <c r="E215" s="4" t="s">
-        <v>840</v>
+        <v>841</v>
       </c>
       <c r="F215" s="4"/>
       <c r="G215" s="6">
         <v>1</v>
       </c>
       <c r="H215" s="7" t="s">
-        <v>1037</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="216" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A216" s="4" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="B216" s="5" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="C216" s="5" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="D216" s="4"/>
       <c r="E216" s="4" t="s">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="F216" s="4"/>
       <c r="G216" s="6">
         <v>1</v>
       </c>
       <c r="H216" s="7" t="s">
-        <v>1037</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="217" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A217" s="4" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="B217" s="5" t="s">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="C217" s="5" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="D217" s="4"/>
       <c r="E217" s="4" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="F217" s="4"/>
       <c r="G217" s="6">
         <v>1</v>
       </c>
       <c r="H217" s="7" t="s">
-        <v>1037</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="218" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A218" s="4" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="B218" s="5" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="C218" s="5" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="D218" s="4"/>
       <c r="E218" s="4" t="s">
-        <v>852</v>
+        <v>853</v>
       </c>
       <c r="F218" s="4"/>
       <c r="G218" s="6">
         <v>1</v>
       </c>
       <c r="H218" s="7" t="s">
-        <v>1037</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="219" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A219" s="4" t="s">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="B219" s="5" t="s">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="C219" s="5" t="s">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="D219" s="4"/>
       <c r="E219" s="4" t="s">
-        <v>856</v>
+        <v>857</v>
       </c>
       <c r="F219" s="4"/>
       <c r="G219" s="6">
         <v>1</v>
       </c>
       <c r="H219" s="7" t="s">
-        <v>1037</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="220" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A220" s="4" t="s">
-        <v>857</v>
+        <v>858</v>
       </c>
       <c r="B220" s="5" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="C220" s="5" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="D220" s="4"/>
       <c r="E220" s="4" t="s">
-        <v>860</v>
+        <v>861</v>
       </c>
       <c r="F220" s="4"/>
       <c r="G220" s="6">
         <v>1</v>
       </c>
       <c r="H220" s="7" t="s">
-        <v>1037</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="221" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A221" s="4" t="s">
-        <v>861</v>
+        <v>862</v>
       </c>
       <c r="B221" s="5" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="C221" s="5" t="s">
-        <v>863</v>
+        <v>864</v>
       </c>
       <c r="D221" s="4"/>
       <c r="E221" s="4" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="F221" s="4"/>
       <c r="G221" s="6">
         <v>1</v>
       </c>
       <c r="H221" s="7" t="s">
-        <v>1037</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="222" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A222" s="4" t="s">
-        <v>865</v>
+        <v>866</v>
       </c>
       <c r="B222" s="5" t="s">
-        <v>866</v>
+        <v>867</v>
       </c>
       <c r="C222" s="5" t="s">
-        <v>867</v>
+        <v>868</v>
       </c>
       <c r="D222" s="4"/>
       <c r="E222" s="4" t="s">
-        <v>868</v>
+        <v>869</v>
       </c>
       <c r="F222" s="4"/>
       <c r="G222" s="6">
         <v>1</v>
       </c>
       <c r="H222" s="7" t="s">
-        <v>1037</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="223" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A223" s="4" t="s">
-        <v>869</v>
+        <v>870</v>
       </c>
       <c r="B223" s="5" t="s">
-        <v>870</v>
+        <v>871</v>
       </c>
       <c r="C223" s="5" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="D223" s="4"/>
       <c r="E223" s="4" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="F223" s="4"/>
       <c r="G223" s="6">
         <v>1</v>
       </c>
       <c r="H223" s="7" t="s">
-        <v>1037</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="224" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A224" s="4" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="B224" s="5" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
       <c r="C224" s="5" t="s">
-        <v>875</v>
+        <v>876</v>
       </c>
       <c r="D224" s="4"/>
       <c r="E224" s="4" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
       <c r="F224" s="4"/>
       <c r="G224" s="6">
         <v>1</v>
       </c>
       <c r="H224" s="7" t="s">
-        <v>1037</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="225" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A225" s="4" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="B225" s="5" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="C225" s="5" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="D225" s="4"/>
       <c r="E225" s="4" t="s">
-        <v>880</v>
+        <v>881</v>
       </c>
       <c r="F225" s="4"/>
       <c r="G225" s="6">
         <v>1</v>
       </c>
       <c r="H225" s="7" t="s">
-        <v>1037</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="226" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A226" s="4" t="s">
-        <v>881</v>
+        <v>882</v>
       </c>
       <c r="B226" s="5" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
       <c r="C226" s="5" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
       <c r="D226" s="4"/>
       <c r="E226" s="4" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="F226" s="4"/>
       <c r="G226" s="6">
         <v>1</v>
       </c>
       <c r="H226" s="7" t="s">
-        <v>1037</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="227" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A227" s="4" t="s">
-        <v>885</v>
+        <v>886</v>
       </c>
       <c r="B227" s="5" t="s">
-        <v>886</v>
+        <v>887</v>
       </c>
       <c r="C227" s="5" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
       <c r="D227" s="4"/>
       <c r="E227" s="4" t="s">
-        <v>888</v>
+        <v>889</v>
       </c>
       <c r="F227" s="4"/>
       <c r="G227" s="6">
         <v>1</v>
       </c>
       <c r="H227" s="7" t="s">
-        <v>1037</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="228" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A228" s="4" t="s">
-        <v>889</v>
+        <v>890</v>
       </c>
       <c r="B228" s="5" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="C228" s="5" t="s">
-        <v>891</v>
+        <v>892</v>
       </c>
       <c r="D228" s="4"/>
       <c r="E228" s="4" t="s">
-        <v>892</v>
+        <v>893</v>
       </c>
       <c r="F228" s="4"/>
       <c r="G228" s="6">
         <v>1</v>
       </c>
       <c r="H228" s="7" t="s">
-        <v>1037</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="229" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A229" s="4" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
       <c r="B229" s="5" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="C229" s="5" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="D229" s="4"/>
       <c r="E229" s="4" t="s">
-        <v>896</v>
+        <v>897</v>
       </c>
       <c r="F229" s="4"/>
       <c r="G229" s="6">
         <v>1</v>
       </c>
       <c r="H229" s="7" t="s">
-        <v>1037</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="230" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A230" s="4" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
       <c r="B230" s="5" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
       <c r="C230" s="5" t="s">
-        <v>899</v>
+        <v>900</v>
       </c>
       <c r="D230" s="4"/>
       <c r="E230" s="4" t="s">
-        <v>900</v>
+        <v>901</v>
       </c>
       <c r="F230" s="4"/>
       <c r="G230" s="6">
         <v>1</v>
       </c>
       <c r="H230" s="7" t="s">
-        <v>1037</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="231" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A231" s="4" t="s">
-        <v>901</v>
+        <v>902</v>
       </c>
       <c r="B231" s="5" t="s">
-        <v>902</v>
+        <v>903</v>
       </c>
       <c r="C231" s="5" t="s">
-        <v>903</v>
+        <v>904</v>
       </c>
       <c r="D231" s="4"/>
       <c r="E231" s="4" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="F231" s="4"/>
       <c r="G231" s="6">
         <v>1</v>
       </c>
       <c r="H231" s="7" t="s">
-        <v>1037</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="232" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A232" s="4" t="s">
-        <v>905</v>
+        <v>906</v>
       </c>
       <c r="B232" s="5" t="s">
-        <v>906</v>
+        <v>907</v>
       </c>
       <c r="C232" s="5" t="s">
-        <v>907</v>
+        <v>908</v>
       </c>
       <c r="D232" s="4"/>
       <c r="E232" s="4" t="s">
-        <v>908</v>
+        <v>909</v>
       </c>
       <c r="F232" s="4"/>
       <c r="G232" s="6">
         <v>1</v>
       </c>
       <c r="H232" s="7" t="s">
-        <v>1037</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="233" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A233" s="4" t="s">
-        <v>909</v>
+        <v>910</v>
       </c>
       <c r="B233" s="5" t="s">
-        <v>910</v>
+        <v>911</v>
       </c>
       <c r="C233" s="5" t="s">
-        <v>911</v>
+        <v>912</v>
       </c>
       <c r="D233" s="4"/>
       <c r="E233" s="4" t="s">
-        <v>912</v>
+        <v>913</v>
       </c>
       <c r="F233" s="4"/>
       <c r="G233" s="6">
         <v>1</v>
       </c>
       <c r="H233" s="7" t="s">
-        <v>1037</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="234" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A234" s="4" t="s">
-        <v>913</v>
+        <v>914</v>
       </c>
       <c r="B234" s="5" t="s">
-        <v>914</v>
+        <v>915</v>
       </c>
       <c r="C234" s="5" t="s">
-        <v>915</v>
+        <v>916</v>
       </c>
       <c r="D234" s="4"/>
       <c r="E234" s="4" t="s">
-        <v>916</v>
+        <v>917</v>
       </c>
       <c r="F234" s="4"/>
       <c r="G234" s="6">
         <v>1</v>
       </c>
       <c r="H234" s="7" t="s">
-        <v>1037</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="235" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A235" s="4" t="s">
-        <v>917</v>
+        <v>918</v>
       </c>
       <c r="B235" s="5" t="s">
-        <v>918</v>
+        <v>919</v>
       </c>
       <c r="C235" s="5" t="s">
-        <v>919</v>
+        <v>920</v>
       </c>
       <c r="D235" s="4"/>
       <c r="E235" s="4" t="s">
-        <v>920</v>
+        <v>921</v>
       </c>
       <c r="F235" s="4"/>
       <c r="G235" s="6">
         <v>1</v>
       </c>
       <c r="H235" s="7" t="s">
-        <v>1037</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="236" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A236" s="4" t="s">
-        <v>921</v>
+        <v>922</v>
       </c>
       <c r="B236" s="5" t="s">
-        <v>922</v>
+        <v>923</v>
       </c>
       <c r="C236" s="5" t="s">
-        <v>923</v>
+        <v>924</v>
       </c>
       <c r="D236" s="4"/>
       <c r="E236" s="4" t="s">
-        <v>924</v>
+        <v>925</v>
       </c>
       <c r="F236" s="4"/>
       <c r="G236" s="6">
         <v>1</v>
       </c>
       <c r="H236" s="7" t="s">
-        <v>1037</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="237" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A237" s="4" t="s">
-        <v>925</v>
+        <v>926</v>
       </c>
       <c r="B237" s="5" t="s">
-        <v>926</v>
+        <v>927</v>
       </c>
       <c r="C237" s="5" t="s">
-        <v>927</v>
+        <v>928</v>
       </c>
       <c r="D237" s="4"/>
       <c r="E237" s="4" t="s">
-        <v>928</v>
+        <v>929</v>
       </c>
       <c r="F237" s="4"/>
       <c r="G237" s="6">
         <v>1</v>
       </c>
       <c r="H237" s="7" t="s">
-        <v>1037</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="238" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A238" s="4" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="B238" s="5" t="s">
-        <v>930</v>
+        <v>931</v>
       </c>
       <c r="C238" s="5" t="s">
-        <v>931</v>
+        <v>932</v>
       </c>
       <c r="D238" s="4"/>
       <c r="E238" s="4" t="s">
-        <v>932</v>
+        <v>933</v>
       </c>
       <c r="F238" s="4"/>
       <c r="G238" s="6">
         <v>1</v>
       </c>
       <c r="H238" s="7" t="s">
-        <v>1037</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="239" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A239" s="4" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="B239" s="5" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="C239" s="5" t="s">
-        <v>935</v>
+        <v>936</v>
       </c>
       <c r="D239" s="4"/>
       <c r="E239" s="4" t="s">
-        <v>936</v>
+        <v>937</v>
       </c>
       <c r="F239" s="4"/>
       <c r="G239" s="6">
         <v>1</v>
       </c>
       <c r="H239" s="7" t="s">
-        <v>1037</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="240" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A240" s="4" t="s">
-        <v>937</v>
+        <v>938</v>
       </c>
       <c r="B240" s="5" t="s">
-        <v>938</v>
+        <v>939</v>
       </c>
       <c r="C240" s="5" t="s">
-        <v>939</v>
+        <v>940</v>
       </c>
       <c r="D240" s="4"/>
       <c r="E240" s="4" t="s">
-        <v>940</v>
+        <v>941</v>
       </c>
       <c r="F240" s="4"/>
       <c r="G240" s="6">
         <v>1</v>
       </c>
       <c r="H240" s="7" t="s">
-        <v>1037</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="241" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A241" s="4" t="s">
-        <v>941</v>
+        <v>942</v>
       </c>
       <c r="B241" s="5" t="s">
-        <v>942</v>
+        <v>943</v>
       </c>
       <c r="C241" s="5" t="s">
-        <v>943</v>
+        <v>944</v>
       </c>
       <c r="D241" s="4"/>
       <c r="E241" s="4" t="s">
-        <v>944</v>
+        <v>945</v>
       </c>
       <c r="F241" s="4"/>
       <c r="G241" s="6">
         <v>1</v>
       </c>
       <c r="H241" s="7" t="s">
-        <v>1037</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="242" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A242" s="4" t="s">
-        <v>945</v>
+        <v>946</v>
       </c>
       <c r="B242" s="5" t="s">
-        <v>946</v>
+        <v>947</v>
       </c>
       <c r="C242" s="5" t="s">
-        <v>947</v>
+        <v>948</v>
       </c>
       <c r="D242" s="4"/>
       <c r="E242" s="4" t="s">
-        <v>948</v>
+        <v>949</v>
       </c>
       <c r="F242" s="4"/>
       <c r="G242" s="6">
         <v>1</v>
       </c>
       <c r="H242" s="7" t="s">
-        <v>1037</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="243" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A243" s="4" t="s">
-        <v>949</v>
+        <v>950</v>
       </c>
       <c r="B243" s="5" t="s">
-        <v>950</v>
+        <v>951</v>
       </c>
       <c r="C243" s="5" t="s">
-        <v>951</v>
+        <v>952</v>
       </c>
       <c r="D243" s="4"/>
       <c r="E243" s="4" t="s">
-        <v>952</v>
+        <v>953</v>
       </c>
       <c r="F243" s="4"/>
       <c r="G243" s="6">
         <v>1</v>
       </c>
       <c r="H243" s="7" t="s">
-        <v>1037</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="244" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A244" s="4" t="s">
-        <v>953</v>
+        <v>954</v>
       </c>
       <c r="B244" s="5" t="s">
-        <v>954</v>
+        <v>955</v>
       </c>
       <c r="C244" s="5" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="D244" s="4"/>
       <c r="E244" s="4" t="s">
-        <v>956</v>
+        <v>957</v>
       </c>
       <c r="F244" s="4"/>
       <c r="G244" s="6">
         <v>1</v>
       </c>
       <c r="H244" s="7" t="s">
-        <v>1037</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="245" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A245" s="4" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="B245" s="5" t="s">
-        <v>958</v>
+        <v>959</v>
       </c>
       <c r="C245" s="5" t="s">
-        <v>959</v>
+        <v>960</v>
       </c>
       <c r="D245" s="4"/>
       <c r="E245" s="4" t="s">
-        <v>960</v>
+        <v>961</v>
       </c>
       <c r="F245" s="4"/>
       <c r="G245" s="6">
         <v>1</v>
       </c>
       <c r="H245" s="7" t="s">
-        <v>1037</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="246" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A246" s="4" t="s">
-        <v>961</v>
+        <v>962</v>
       </c>
       <c r="B246" s="5" t="s">
-        <v>962</v>
+        <v>963</v>
       </c>
       <c r="C246" s="5" t="s">
-        <v>963</v>
+        <v>964</v>
       </c>
       <c r="D246" s="4"/>
       <c r="E246" s="4" t="s">
-        <v>964</v>
+        <v>965</v>
       </c>
       <c r="F246" s="4"/>
       <c r="G246" s="6">
         <v>1</v>
       </c>
       <c r="H246" s="7" t="s">
-        <v>1037</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="247" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A247" s="4" t="s">
-        <v>965</v>
+        <v>966</v>
       </c>
       <c r="B247" s="5" t="s">
-        <v>966</v>
+        <v>967</v>
       </c>
       <c r="C247" s="5" t="s">
-        <v>967</v>
+        <v>968</v>
       </c>
       <c r="D247" s="4"/>
       <c r="E247" s="4" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
       <c r="F247" s="4"/>
       <c r="G247" s="6">
         <v>1</v>
       </c>
       <c r="H247" s="7" t="s">
-        <v>1037</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="248" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A248" s="4" t="s">
-        <v>969</v>
+        <v>970</v>
       </c>
       <c r="B248" s="5" t="s">
-        <v>970</v>
+        <v>971</v>
       </c>
       <c r="C248" s="5" t="s">
-        <v>971</v>
+        <v>972</v>
       </c>
       <c r="D248" s="4"/>
       <c r="E248" s="4" t="s">
-        <v>972</v>
+        <v>1051</v>
       </c>
       <c r="F248" s="4"/>
       <c r="G248" s="6">
         <v>1</v>
       </c>
       <c r="H248" s="7" t="s">
-        <v>1037</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="249" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.4">
@@ -9174,14 +9161,14 @@
       </c>
       <c r="D249" s="4"/>
       <c r="E249" s="4" t="s">
-        <v>1055</v>
+        <v>1052</v>
       </c>
       <c r="F249" s="4"/>
       <c r="G249" s="6">
         <v>1</v>
       </c>
       <c r="H249" s="7" t="s">
-        <v>1037</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="250" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.4">
@@ -9196,324 +9183,303 @@
       </c>
       <c r="D250" s="4"/>
       <c r="E250" s="4" t="s">
-        <v>1056</v>
+        <v>979</v>
       </c>
       <c r="F250" s="4"/>
       <c r="G250" s="6">
         <v>1</v>
       </c>
       <c r="H250" s="7" t="s">
-        <v>1037</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="251" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A251" s="4" t="s">
-        <v>979</v>
+        <v>980</v>
       </c>
       <c r="B251" s="5" t="s">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="C251" s="5" t="s">
-        <v>981</v>
+        <v>982</v>
       </c>
       <c r="D251" s="4"/>
       <c r="E251" s="4" t="s">
-        <v>982</v>
+        <v>983</v>
       </c>
       <c r="F251" s="4"/>
       <c r="G251" s="6">
         <v>1</v>
       </c>
       <c r="H251" s="7" t="s">
-        <v>1037</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="252" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A252" s="4" t="s">
-        <v>983</v>
+        <v>984</v>
       </c>
       <c r="B252" s="5" t="s">
-        <v>984</v>
+        <v>985</v>
       </c>
       <c r="C252" s="5" t="s">
-        <v>985</v>
+        <v>986</v>
       </c>
       <c r="D252" s="4"/>
       <c r="E252" s="4" t="s">
-        <v>986</v>
+        <v>987</v>
       </c>
       <c r="F252" s="4"/>
       <c r="G252" s="6">
         <v>1</v>
       </c>
       <c r="H252" s="7" t="s">
-        <v>1037</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="253" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A253" s="4" t="s">
-        <v>987</v>
+        <v>988</v>
       </c>
       <c r="B253" s="5" t="s">
-        <v>988</v>
+        <v>989</v>
       </c>
       <c r="C253" s="5" t="s">
-        <v>989</v>
+        <v>990</v>
       </c>
       <c r="D253" s="4"/>
       <c r="E253" s="4" t="s">
-        <v>990</v>
+        <v>991</v>
       </c>
       <c r="F253" s="4"/>
       <c r="G253" s="6">
         <v>1</v>
       </c>
       <c r="H253" s="7" t="s">
-        <v>1037</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="254" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A254" s="4" t="s">
-        <v>991</v>
+        <v>992</v>
       </c>
       <c r="B254" s="5" t="s">
-        <v>992</v>
+        <v>993</v>
       </c>
       <c r="C254" s="5" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="D254" s="4"/>
       <c r="E254" s="4" t="s">
-        <v>994</v>
+        <v>995</v>
       </c>
       <c r="F254" s="4"/>
       <c r="G254" s="6">
         <v>1</v>
       </c>
       <c r="H254" s="7" t="s">
-        <v>1037</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="255" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A255" s="4" t="s">
-        <v>995</v>
+        <v>996</v>
       </c>
       <c r="B255" s="5" t="s">
-        <v>996</v>
+        <v>997</v>
       </c>
       <c r="C255" s="5" t="s">
-        <v>997</v>
+        <v>998</v>
       </c>
       <c r="D255" s="4"/>
       <c r="E255" s="4" t="s">
-        <v>998</v>
+        <v>999</v>
       </c>
       <c r="F255" s="4"/>
       <c r="G255" s="6">
         <v>1</v>
       </c>
       <c r="H255" s="7" t="s">
-        <v>1037</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="256" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A256" s="4" t="s">
-        <v>999</v>
+        <v>1000</v>
       </c>
       <c r="B256" s="5" t="s">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="C256" s="5" t="s">
-        <v>1001</v>
+        <v>1002</v>
       </c>
       <c r="D256" s="4"/>
       <c r="E256" s="4" t="s">
-        <v>1002</v>
+        <v>1003</v>
       </c>
       <c r="F256" s="4"/>
       <c r="G256" s="6">
         <v>1</v>
       </c>
       <c r="H256" s="7" t="s">
-        <v>1037</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="257" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A257" s="4" t="s">
-        <v>1003</v>
+        <v>1004</v>
       </c>
       <c r="B257" s="5" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
       <c r="C257" s="5" t="s">
-        <v>1005</v>
+        <v>1006</v>
       </c>
       <c r="D257" s="4"/>
       <c r="E257" s="4" t="s">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="F257" s="4"/>
       <c r="G257" s="6">
         <v>1</v>
       </c>
       <c r="H257" s="7" t="s">
-        <v>1037</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="258" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A258" s="4" t="s">
-        <v>1007</v>
+        <v>1008</v>
       </c>
       <c r="B258" s="5" t="s">
-        <v>1008</v>
+        <v>1009</v>
       </c>
       <c r="C258" s="5" t="s">
-        <v>1009</v>
+        <v>1010</v>
       </c>
       <c r="D258" s="4"/>
       <c r="E258" s="4" t="s">
-        <v>1010</v>
+        <v>1011</v>
       </c>
       <c r="F258" s="4"/>
       <c r="G258" s="6">
         <v>1</v>
       </c>
       <c r="H258" s="7" t="s">
-        <v>1037</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="259" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A259" s="4" t="s">
-        <v>1011</v>
+        <v>1012</v>
       </c>
       <c r="B259" s="5" t="s">
-        <v>1012</v>
+        <v>1013</v>
       </c>
       <c r="C259" s="5" t="s">
-        <v>1013</v>
+        <v>1014</v>
       </c>
       <c r="D259" s="4"/>
       <c r="E259" s="4" t="s">
-        <v>1014</v>
+        <v>1015</v>
       </c>
       <c r="F259" s="4"/>
       <c r="G259" s="6">
         <v>1</v>
       </c>
       <c r="H259" s="7" t="s">
-        <v>1037</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="260" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A260" s="4" t="s">
-        <v>1015</v>
+        <v>1016</v>
       </c>
       <c r="B260" s="5" t="s">
-        <v>1016</v>
+        <v>1017</v>
       </c>
       <c r="C260" s="5" t="s">
-        <v>1017</v>
+        <v>1018</v>
       </c>
       <c r="D260" s="4"/>
       <c r="E260" s="4" t="s">
-        <v>1018</v>
+        <v>1019</v>
       </c>
       <c r="F260" s="4"/>
       <c r="G260" s="6">
         <v>1</v>
       </c>
       <c r="H260" s="7" t="s">
-        <v>1037</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="261" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A261" s="4" t="s">
-        <v>1019</v>
+        <v>1020</v>
       </c>
       <c r="B261" s="5" t="s">
-        <v>1020</v>
+        <v>1021</v>
       </c>
       <c r="C261" s="5" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="D261" s="4"/>
       <c r="E261" s="4" t="s">
-        <v>1022</v>
+        <v>1023</v>
       </c>
       <c r="F261" s="4"/>
       <c r="G261" s="6">
         <v>1</v>
       </c>
       <c r="H261" s="7" t="s">
-        <v>1037</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="262" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A262" s="4" t="s">
-        <v>1023</v>
+        <v>1024</v>
       </c>
       <c r="B262" s="5" t="s">
-        <v>1024</v>
+        <v>1025</v>
       </c>
       <c r="C262" s="5" t="s">
-        <v>1025</v>
+        <v>1026</v>
       </c>
       <c r="D262" s="4"/>
       <c r="E262" s="4" t="s">
-        <v>1026</v>
+        <v>1027</v>
       </c>
       <c r="F262" s="4"/>
       <c r="G262" s="6">
         <v>1</v>
       </c>
       <c r="H262" s="7" t="s">
-        <v>1037</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="263" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A263" s="4" t="s">
-        <v>1027</v>
-      </c>
-      <c r="B263" s="5" t="s">
-        <v>1028</v>
-      </c>
-      <c r="C263" s="5" t="s">
-        <v>1029</v>
-      </c>
-      <c r="D263" s="4"/>
-      <c r="E263" s="4" t="s">
+      <c r="A263" s="6" t="s">
         <v>1030</v>
       </c>
-      <c r="F263" s="4"/>
+      <c r="B263" s="9" t="s">
+        <v>1031</v>
+      </c>
+      <c r="C263" s="9" t="s">
+        <v>1032</v>
+      </c>
+      <c r="D263" s="6"/>
+      <c r="E263" s="6" t="s">
+        <v>1033</v>
+      </c>
+      <c r="F263" s="6"/>
       <c r="G263" s="6">
         <v>1</v>
       </c>
       <c r="H263" s="7" t="s">
-        <v>1037</v>
-      </c>
-    </row>
-    <row r="264" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A264" s="6" t="s">
-        <v>1033</v>
-      </c>
-      <c r="B264" s="9" t="s">
-        <v>1034</v>
-      </c>
-      <c r="C264" s="9" t="s">
-        <v>1035</v>
-      </c>
-      <c r="D264" s="6"/>
-      <c r="E264" s="6" t="s">
-        <v>1036</v>
-      </c>
-      <c r="F264" s="6"/>
-      <c r="G264" s="6">
-        <v>1</v>
-      </c>
-      <c r="H264" s="7" t="s">
-        <v>1037</v>
-      </c>
-    </row>
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="264" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="265" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="266" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="267" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -9781,7 +9747,15 @@
     <row r="529" spans="1:7" ht="38.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="530" spans="1:7" ht="38.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="531" spans="1:7" ht="38.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="532" spans="1:7" ht="38.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="532" spans="1:7" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A532" s="4"/>
+      <c r="B532" s="4"/>
+      <c r="C532" s="4"/>
+      <c r="D532" s="4"/>
+      <c r="E532" s="4"/>
+      <c r="F532" s="4"/>
+      <c r="G532" s="4"/>
+    </row>
     <row r="533" spans="1:7" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A533" s="4"/>
       <c r="B533" s="4"/>
@@ -13930,15 +13904,6 @@
       <c r="E993" s="4"/>
       <c r="F993" s="4"/>
       <c r="G993" s="4"/>
-    </row>
-    <row r="994" spans="1:7" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A994" s="4"/>
-      <c r="B994" s="4"/>
-      <c r="C994" s="4"/>
-      <c r="D994" s="4"/>
-      <c r="E994" s="4"/>
-      <c r="F994" s="4"/>
-      <c r="G994" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4"/>
@@ -14049,428 +14014,426 @@
     <hyperlink ref="C53" r:id="rId104" xr:uid="{00000000-0004-0000-0000-000067000000}"/>
     <hyperlink ref="B54" r:id="rId105" xr:uid="{00000000-0004-0000-0000-000068000000}"/>
     <hyperlink ref="C54" r:id="rId106" xr:uid="{00000000-0004-0000-0000-000069000000}"/>
-    <hyperlink ref="B55" r:id="rId107" xr:uid="{00000000-0004-0000-0000-00006A000000}"/>
-    <hyperlink ref="C55" r:id="rId108" xr:uid="{00000000-0004-0000-0000-00006B000000}"/>
-    <hyperlink ref="B56" r:id="rId109" xr:uid="{00000000-0004-0000-0000-00006C000000}"/>
-    <hyperlink ref="C56" r:id="rId110" xr:uid="{00000000-0004-0000-0000-00006D000000}"/>
-    <hyperlink ref="B57" r:id="rId111" xr:uid="{00000000-0004-0000-0000-00006E000000}"/>
-    <hyperlink ref="C57" r:id="rId112" xr:uid="{00000000-0004-0000-0000-00006F000000}"/>
-    <hyperlink ref="B58" r:id="rId113" xr:uid="{00000000-0004-0000-0000-000070000000}"/>
-    <hyperlink ref="C58" r:id="rId114" xr:uid="{00000000-0004-0000-0000-000071000000}"/>
-    <hyperlink ref="B59" r:id="rId115" xr:uid="{00000000-0004-0000-0000-000072000000}"/>
-    <hyperlink ref="C59" r:id="rId116" xr:uid="{00000000-0004-0000-0000-000073000000}"/>
-    <hyperlink ref="B60" r:id="rId117" xr:uid="{00000000-0004-0000-0000-000074000000}"/>
-    <hyperlink ref="C60" r:id="rId118" xr:uid="{00000000-0004-0000-0000-000075000000}"/>
-    <hyperlink ref="B61" r:id="rId119" xr:uid="{00000000-0004-0000-0000-000076000000}"/>
-    <hyperlink ref="C61" r:id="rId120" xr:uid="{00000000-0004-0000-0000-000077000000}"/>
-    <hyperlink ref="B62" r:id="rId121" xr:uid="{00000000-0004-0000-0000-000078000000}"/>
-    <hyperlink ref="C62" r:id="rId122" xr:uid="{00000000-0004-0000-0000-000079000000}"/>
-    <hyperlink ref="B63" r:id="rId123" xr:uid="{00000000-0004-0000-0000-00007A000000}"/>
-    <hyperlink ref="C63" r:id="rId124" xr:uid="{00000000-0004-0000-0000-00007B000000}"/>
-    <hyperlink ref="B64" r:id="rId125" xr:uid="{00000000-0004-0000-0000-00007C000000}"/>
-    <hyperlink ref="C64" r:id="rId126" xr:uid="{00000000-0004-0000-0000-00007D000000}"/>
-    <hyperlink ref="B65" r:id="rId127" xr:uid="{00000000-0004-0000-0000-00007E000000}"/>
-    <hyperlink ref="C65" r:id="rId128" xr:uid="{00000000-0004-0000-0000-00007F000000}"/>
-    <hyperlink ref="B66" r:id="rId129" xr:uid="{00000000-0004-0000-0000-000080000000}"/>
-    <hyperlink ref="C66" r:id="rId130" xr:uid="{00000000-0004-0000-0000-000081000000}"/>
-    <hyperlink ref="B67" r:id="rId131" xr:uid="{00000000-0004-0000-0000-000082000000}"/>
-    <hyperlink ref="C67" r:id="rId132" xr:uid="{00000000-0004-0000-0000-000083000000}"/>
-    <hyperlink ref="B68" r:id="rId133" xr:uid="{00000000-0004-0000-0000-000084000000}"/>
-    <hyperlink ref="C68" r:id="rId134" xr:uid="{00000000-0004-0000-0000-000085000000}"/>
-    <hyperlink ref="B69" r:id="rId135" xr:uid="{00000000-0004-0000-0000-000086000000}"/>
-    <hyperlink ref="C69" r:id="rId136" xr:uid="{00000000-0004-0000-0000-000087000000}"/>
-    <hyperlink ref="B70" r:id="rId137" xr:uid="{00000000-0004-0000-0000-000088000000}"/>
-    <hyperlink ref="C70" r:id="rId138" xr:uid="{00000000-0004-0000-0000-000089000000}"/>
-    <hyperlink ref="B71" r:id="rId139" xr:uid="{00000000-0004-0000-0000-00008A000000}"/>
-    <hyperlink ref="C71" r:id="rId140" xr:uid="{00000000-0004-0000-0000-00008B000000}"/>
-    <hyperlink ref="B72" r:id="rId141" xr:uid="{00000000-0004-0000-0000-00008C000000}"/>
-    <hyperlink ref="C72" r:id="rId142" xr:uid="{00000000-0004-0000-0000-00008D000000}"/>
-    <hyperlink ref="B73" r:id="rId143" xr:uid="{00000000-0004-0000-0000-00008E000000}"/>
-    <hyperlink ref="C73" r:id="rId144" xr:uid="{00000000-0004-0000-0000-00008F000000}"/>
-    <hyperlink ref="B74" r:id="rId145" xr:uid="{00000000-0004-0000-0000-000090000000}"/>
-    <hyperlink ref="C74" r:id="rId146" xr:uid="{00000000-0004-0000-0000-000091000000}"/>
-    <hyperlink ref="B75" r:id="rId147" xr:uid="{00000000-0004-0000-0000-000092000000}"/>
-    <hyperlink ref="C75" r:id="rId148" xr:uid="{00000000-0004-0000-0000-000093000000}"/>
-    <hyperlink ref="B76" r:id="rId149" xr:uid="{00000000-0004-0000-0000-000094000000}"/>
-    <hyperlink ref="C76" r:id="rId150" xr:uid="{00000000-0004-0000-0000-000095000000}"/>
-    <hyperlink ref="B77" r:id="rId151" xr:uid="{00000000-0004-0000-0000-000096000000}"/>
-    <hyperlink ref="C77" r:id="rId152" xr:uid="{00000000-0004-0000-0000-000097000000}"/>
-    <hyperlink ref="B78" r:id="rId153" xr:uid="{00000000-0004-0000-0000-000098000000}"/>
-    <hyperlink ref="C78" r:id="rId154" xr:uid="{00000000-0004-0000-0000-000099000000}"/>
-    <hyperlink ref="B79" r:id="rId155" xr:uid="{00000000-0004-0000-0000-00009A000000}"/>
-    <hyperlink ref="C79" r:id="rId156" xr:uid="{00000000-0004-0000-0000-00009B000000}"/>
-    <hyperlink ref="B80" r:id="rId157" xr:uid="{00000000-0004-0000-0000-00009C000000}"/>
-    <hyperlink ref="C80" r:id="rId158" xr:uid="{00000000-0004-0000-0000-00009D000000}"/>
-    <hyperlink ref="B81" r:id="rId159" xr:uid="{00000000-0004-0000-0000-00009E000000}"/>
-    <hyperlink ref="C81" r:id="rId160" xr:uid="{00000000-0004-0000-0000-00009F000000}"/>
-    <hyperlink ref="B82" r:id="rId161" xr:uid="{00000000-0004-0000-0000-0000A2000000}"/>
-    <hyperlink ref="C82" r:id="rId162" xr:uid="{00000000-0004-0000-0000-0000A3000000}"/>
-    <hyperlink ref="B83" r:id="rId163" xr:uid="{00000000-0004-0000-0000-0000A4000000}"/>
-    <hyperlink ref="C83" r:id="rId164" xr:uid="{00000000-0004-0000-0000-0000A5000000}"/>
-    <hyperlink ref="B84" r:id="rId165" xr:uid="{00000000-0004-0000-0000-0000A6000000}"/>
-    <hyperlink ref="C84" r:id="rId166" xr:uid="{00000000-0004-0000-0000-0000A7000000}"/>
-    <hyperlink ref="B85" r:id="rId167" xr:uid="{00000000-0004-0000-0000-0000A8000000}"/>
-    <hyperlink ref="C85" r:id="rId168" xr:uid="{00000000-0004-0000-0000-0000A9000000}"/>
-    <hyperlink ref="B86" r:id="rId169" xr:uid="{00000000-0004-0000-0000-0000AA000000}"/>
-    <hyperlink ref="C86" r:id="rId170" xr:uid="{00000000-0004-0000-0000-0000AB000000}"/>
-    <hyperlink ref="B87" r:id="rId171" xr:uid="{00000000-0004-0000-0000-0000AC000000}"/>
-    <hyperlink ref="C87" r:id="rId172" xr:uid="{00000000-0004-0000-0000-0000AD000000}"/>
-    <hyperlink ref="B88" r:id="rId173" xr:uid="{00000000-0004-0000-0000-0000AE000000}"/>
-    <hyperlink ref="C88" r:id="rId174" xr:uid="{00000000-0004-0000-0000-0000AF000000}"/>
-    <hyperlink ref="B89" r:id="rId175" xr:uid="{00000000-0004-0000-0000-0000B0000000}"/>
-    <hyperlink ref="C89" r:id="rId176" xr:uid="{00000000-0004-0000-0000-0000B1000000}"/>
-    <hyperlink ref="B90" r:id="rId177" xr:uid="{00000000-0004-0000-0000-0000B2000000}"/>
-    <hyperlink ref="C90" r:id="rId178" xr:uid="{00000000-0004-0000-0000-0000B3000000}"/>
-    <hyperlink ref="B91" r:id="rId179" xr:uid="{00000000-0004-0000-0000-0000B4000000}"/>
-    <hyperlink ref="C91" r:id="rId180" xr:uid="{00000000-0004-0000-0000-0000B5000000}"/>
-    <hyperlink ref="B92" r:id="rId181" xr:uid="{00000000-0004-0000-0000-0000B6000000}"/>
-    <hyperlink ref="C92" r:id="rId182" xr:uid="{00000000-0004-0000-0000-0000B7000000}"/>
-    <hyperlink ref="B93" r:id="rId183" xr:uid="{00000000-0004-0000-0000-0000B8000000}"/>
-    <hyperlink ref="C93" r:id="rId184" xr:uid="{00000000-0004-0000-0000-0000B9000000}"/>
-    <hyperlink ref="B94" r:id="rId185" xr:uid="{00000000-0004-0000-0000-0000BA000000}"/>
-    <hyperlink ref="C94" r:id="rId186" xr:uid="{00000000-0004-0000-0000-0000BB000000}"/>
-    <hyperlink ref="B95" r:id="rId187" xr:uid="{00000000-0004-0000-0000-0000BC000000}"/>
-    <hyperlink ref="C95" r:id="rId188" xr:uid="{00000000-0004-0000-0000-0000BD000000}"/>
-    <hyperlink ref="B96" r:id="rId189" xr:uid="{00000000-0004-0000-0000-0000BE000000}"/>
-    <hyperlink ref="C96" r:id="rId190" xr:uid="{00000000-0004-0000-0000-0000BF000000}"/>
-    <hyperlink ref="B97" r:id="rId191" xr:uid="{00000000-0004-0000-0000-0000C0000000}"/>
-    <hyperlink ref="C97" r:id="rId192" xr:uid="{00000000-0004-0000-0000-0000C1000000}"/>
-    <hyperlink ref="B98" r:id="rId193" xr:uid="{00000000-0004-0000-0000-0000C2000000}"/>
-    <hyperlink ref="C98" r:id="rId194" xr:uid="{00000000-0004-0000-0000-0000C3000000}"/>
-    <hyperlink ref="B99" r:id="rId195" xr:uid="{00000000-0004-0000-0000-0000C4000000}"/>
-    <hyperlink ref="C99" r:id="rId196" xr:uid="{00000000-0004-0000-0000-0000C5000000}"/>
-    <hyperlink ref="B100" r:id="rId197" xr:uid="{00000000-0004-0000-0000-0000C6000000}"/>
-    <hyperlink ref="C100" r:id="rId198" xr:uid="{00000000-0004-0000-0000-0000C7000000}"/>
-    <hyperlink ref="B101" r:id="rId199" xr:uid="{00000000-0004-0000-0000-0000C8000000}"/>
-    <hyperlink ref="C101" r:id="rId200" xr:uid="{00000000-0004-0000-0000-0000C9000000}"/>
-    <hyperlink ref="B102" r:id="rId201" xr:uid="{00000000-0004-0000-0000-0000CA000000}"/>
-    <hyperlink ref="C102" r:id="rId202" xr:uid="{00000000-0004-0000-0000-0000CB000000}"/>
-    <hyperlink ref="B103" r:id="rId203" xr:uid="{00000000-0004-0000-0000-0000CC000000}"/>
-    <hyperlink ref="C103" r:id="rId204" xr:uid="{00000000-0004-0000-0000-0000CD000000}"/>
-    <hyperlink ref="B104" r:id="rId205" xr:uid="{00000000-0004-0000-0000-0000CE000000}"/>
-    <hyperlink ref="C104" r:id="rId206" xr:uid="{00000000-0004-0000-0000-0000CF000000}"/>
-    <hyperlink ref="B105" r:id="rId207" xr:uid="{00000000-0004-0000-0000-0000D0000000}"/>
-    <hyperlink ref="C105" r:id="rId208" xr:uid="{00000000-0004-0000-0000-0000D1000000}"/>
-    <hyperlink ref="B106" r:id="rId209" xr:uid="{00000000-0004-0000-0000-0000D2000000}"/>
-    <hyperlink ref="C106" r:id="rId210" xr:uid="{00000000-0004-0000-0000-0000D3000000}"/>
-    <hyperlink ref="B107" r:id="rId211" xr:uid="{00000000-0004-0000-0000-0000D4000000}"/>
-    <hyperlink ref="C107" r:id="rId212" xr:uid="{00000000-0004-0000-0000-0000D5000000}"/>
-    <hyperlink ref="B108" r:id="rId213" xr:uid="{00000000-0004-0000-0000-0000D6000000}"/>
-    <hyperlink ref="C108" r:id="rId214" xr:uid="{00000000-0004-0000-0000-0000D7000000}"/>
-    <hyperlink ref="B109" r:id="rId215" xr:uid="{00000000-0004-0000-0000-0000D8000000}"/>
-    <hyperlink ref="C109" r:id="rId216" xr:uid="{00000000-0004-0000-0000-0000D9000000}"/>
-    <hyperlink ref="B110" r:id="rId217" xr:uid="{00000000-0004-0000-0000-0000DA000000}"/>
-    <hyperlink ref="C110" r:id="rId218" xr:uid="{00000000-0004-0000-0000-0000DB000000}"/>
-    <hyperlink ref="B111" r:id="rId219" xr:uid="{00000000-0004-0000-0000-0000DC000000}"/>
-    <hyperlink ref="C111" r:id="rId220" xr:uid="{00000000-0004-0000-0000-0000DD000000}"/>
-    <hyperlink ref="B112" r:id="rId221" xr:uid="{00000000-0004-0000-0000-0000DE000000}"/>
-    <hyperlink ref="C112" r:id="rId222" xr:uid="{00000000-0004-0000-0000-0000DF000000}"/>
-    <hyperlink ref="B113" r:id="rId223" xr:uid="{00000000-0004-0000-0000-0000E0000000}"/>
-    <hyperlink ref="C113" r:id="rId224" xr:uid="{00000000-0004-0000-0000-0000E1000000}"/>
-    <hyperlink ref="B114" r:id="rId225" xr:uid="{00000000-0004-0000-0000-0000E2000000}"/>
-    <hyperlink ref="C114" r:id="rId226" xr:uid="{00000000-0004-0000-0000-0000E3000000}"/>
-    <hyperlink ref="B115" r:id="rId227" xr:uid="{00000000-0004-0000-0000-0000E4000000}"/>
-    <hyperlink ref="C115" r:id="rId228" xr:uid="{00000000-0004-0000-0000-0000E5000000}"/>
-    <hyperlink ref="B116" r:id="rId229" xr:uid="{00000000-0004-0000-0000-0000E6000000}"/>
-    <hyperlink ref="C116" r:id="rId230" xr:uid="{00000000-0004-0000-0000-0000E7000000}"/>
-    <hyperlink ref="B117" r:id="rId231" xr:uid="{00000000-0004-0000-0000-0000E8000000}"/>
-    <hyperlink ref="C117" r:id="rId232" xr:uid="{00000000-0004-0000-0000-0000E9000000}"/>
-    <hyperlink ref="B118" r:id="rId233" xr:uid="{00000000-0004-0000-0000-0000EA000000}"/>
-    <hyperlink ref="C118" r:id="rId234" xr:uid="{00000000-0004-0000-0000-0000EB000000}"/>
-    <hyperlink ref="B119" r:id="rId235" xr:uid="{00000000-0004-0000-0000-0000EC000000}"/>
-    <hyperlink ref="C119" r:id="rId236" xr:uid="{00000000-0004-0000-0000-0000ED000000}"/>
-    <hyperlink ref="B120" r:id="rId237" xr:uid="{00000000-0004-0000-0000-0000EE000000}"/>
-    <hyperlink ref="C120" r:id="rId238" xr:uid="{00000000-0004-0000-0000-0000EF000000}"/>
-    <hyperlink ref="B121" r:id="rId239" xr:uid="{00000000-0004-0000-0000-0000F0000000}"/>
-    <hyperlink ref="C121" r:id="rId240" xr:uid="{00000000-0004-0000-0000-0000F1000000}"/>
-    <hyperlink ref="B122" r:id="rId241" xr:uid="{00000000-0004-0000-0000-0000F2000000}"/>
-    <hyperlink ref="C122" r:id="rId242" xr:uid="{00000000-0004-0000-0000-0000F3000000}"/>
-    <hyperlink ref="B123" r:id="rId243" xr:uid="{00000000-0004-0000-0000-0000F4000000}"/>
-    <hyperlink ref="C123" r:id="rId244" xr:uid="{00000000-0004-0000-0000-0000F5000000}"/>
-    <hyperlink ref="B124" r:id="rId245" xr:uid="{00000000-0004-0000-0000-0000F6000000}"/>
-    <hyperlink ref="C124" r:id="rId246" xr:uid="{00000000-0004-0000-0000-0000F7000000}"/>
-    <hyperlink ref="B125" r:id="rId247" xr:uid="{00000000-0004-0000-0000-0000F8000000}"/>
-    <hyperlink ref="C125" r:id="rId248" xr:uid="{00000000-0004-0000-0000-0000F9000000}"/>
-    <hyperlink ref="B126" r:id="rId249" xr:uid="{00000000-0004-0000-0000-0000FA000000}"/>
-    <hyperlink ref="C126" r:id="rId250" xr:uid="{00000000-0004-0000-0000-0000FB000000}"/>
-    <hyperlink ref="B127" r:id="rId251" xr:uid="{00000000-0004-0000-0000-0000FC000000}"/>
-    <hyperlink ref="C127" r:id="rId252" xr:uid="{00000000-0004-0000-0000-0000FD000000}"/>
-    <hyperlink ref="B128" r:id="rId253" xr:uid="{00000000-0004-0000-0000-0000FE000000}"/>
-    <hyperlink ref="C128" r:id="rId254" xr:uid="{00000000-0004-0000-0000-0000FF000000}"/>
-    <hyperlink ref="B129" r:id="rId255" xr:uid="{00000000-0004-0000-0000-000000010000}"/>
-    <hyperlink ref="C129" r:id="rId256" xr:uid="{00000000-0004-0000-0000-000001010000}"/>
-    <hyperlink ref="B130" r:id="rId257" xr:uid="{00000000-0004-0000-0000-000002010000}"/>
-    <hyperlink ref="C130" r:id="rId258" xr:uid="{00000000-0004-0000-0000-000003010000}"/>
-    <hyperlink ref="B131" r:id="rId259" xr:uid="{00000000-0004-0000-0000-000006010000}"/>
-    <hyperlink ref="C131" r:id="rId260" xr:uid="{00000000-0004-0000-0000-000007010000}"/>
-    <hyperlink ref="B132" r:id="rId261" xr:uid="{00000000-0004-0000-0000-000008010000}"/>
-    <hyperlink ref="C132" r:id="rId262" xr:uid="{00000000-0004-0000-0000-000009010000}"/>
-    <hyperlink ref="B133" r:id="rId263" xr:uid="{00000000-0004-0000-0000-00000A010000}"/>
-    <hyperlink ref="C133" r:id="rId264" xr:uid="{00000000-0004-0000-0000-00000B010000}"/>
-    <hyperlink ref="B134" r:id="rId265" xr:uid="{00000000-0004-0000-0000-00000C010000}"/>
-    <hyperlink ref="C134" r:id="rId266" xr:uid="{00000000-0004-0000-0000-00000D010000}"/>
-    <hyperlink ref="B135" r:id="rId267" xr:uid="{00000000-0004-0000-0000-00000E010000}"/>
-    <hyperlink ref="C135" r:id="rId268" xr:uid="{00000000-0004-0000-0000-00000F010000}"/>
-    <hyperlink ref="B136" r:id="rId269" xr:uid="{00000000-0004-0000-0000-000010010000}"/>
-    <hyperlink ref="C136" r:id="rId270" xr:uid="{00000000-0004-0000-0000-000011010000}"/>
-    <hyperlink ref="B137" r:id="rId271" xr:uid="{00000000-0004-0000-0000-000012010000}"/>
-    <hyperlink ref="C137" r:id="rId272" xr:uid="{00000000-0004-0000-0000-000013010000}"/>
-    <hyperlink ref="B138" r:id="rId273" xr:uid="{00000000-0004-0000-0000-000014010000}"/>
-    <hyperlink ref="C138" r:id="rId274" xr:uid="{00000000-0004-0000-0000-000015010000}"/>
-    <hyperlink ref="B139" r:id="rId275" xr:uid="{00000000-0004-0000-0000-000016010000}"/>
-    <hyperlink ref="C139" r:id="rId276" xr:uid="{00000000-0004-0000-0000-000017010000}"/>
-    <hyperlink ref="B140" r:id="rId277" xr:uid="{00000000-0004-0000-0000-000018010000}"/>
-    <hyperlink ref="C140" r:id="rId278" xr:uid="{00000000-0004-0000-0000-000019010000}"/>
-    <hyperlink ref="B141" r:id="rId279" xr:uid="{00000000-0004-0000-0000-00001A010000}"/>
-    <hyperlink ref="C141" r:id="rId280" xr:uid="{00000000-0004-0000-0000-00001B010000}"/>
-    <hyperlink ref="B142" r:id="rId281" xr:uid="{00000000-0004-0000-0000-00001C010000}"/>
-    <hyperlink ref="C142" r:id="rId282" xr:uid="{00000000-0004-0000-0000-00001D010000}"/>
-    <hyperlink ref="B143" r:id="rId283" xr:uid="{00000000-0004-0000-0000-00001E010000}"/>
-    <hyperlink ref="C143" r:id="rId284" xr:uid="{00000000-0004-0000-0000-00001F010000}"/>
-    <hyperlink ref="B144" r:id="rId285" xr:uid="{00000000-0004-0000-0000-000020010000}"/>
-    <hyperlink ref="C144" r:id="rId286" xr:uid="{00000000-0004-0000-0000-000021010000}"/>
-    <hyperlink ref="B145" r:id="rId287" xr:uid="{00000000-0004-0000-0000-000022010000}"/>
-    <hyperlink ref="C145" r:id="rId288" xr:uid="{00000000-0004-0000-0000-000023010000}"/>
-    <hyperlink ref="B146" r:id="rId289" xr:uid="{00000000-0004-0000-0000-000024010000}"/>
-    <hyperlink ref="C146" r:id="rId290" xr:uid="{00000000-0004-0000-0000-000025010000}"/>
-    <hyperlink ref="B147" r:id="rId291" xr:uid="{00000000-0004-0000-0000-000026010000}"/>
-    <hyperlink ref="C147" r:id="rId292" xr:uid="{00000000-0004-0000-0000-000027010000}"/>
-    <hyperlink ref="B148" r:id="rId293" xr:uid="{00000000-0004-0000-0000-000028010000}"/>
-    <hyperlink ref="C148" r:id="rId294" xr:uid="{00000000-0004-0000-0000-000029010000}"/>
-    <hyperlink ref="B149" r:id="rId295" xr:uid="{00000000-0004-0000-0000-00002A010000}"/>
-    <hyperlink ref="C149" r:id="rId296" xr:uid="{00000000-0004-0000-0000-00002B010000}"/>
-    <hyperlink ref="B150" r:id="rId297" xr:uid="{00000000-0004-0000-0000-00002C010000}"/>
-    <hyperlink ref="C150" r:id="rId298" xr:uid="{00000000-0004-0000-0000-00002D010000}"/>
-    <hyperlink ref="B151" r:id="rId299" xr:uid="{00000000-0004-0000-0000-00002E010000}"/>
-    <hyperlink ref="C151" r:id="rId300" xr:uid="{00000000-0004-0000-0000-00002F010000}"/>
-    <hyperlink ref="B152" r:id="rId301" xr:uid="{00000000-0004-0000-0000-000030010000}"/>
-    <hyperlink ref="C152" r:id="rId302" xr:uid="{00000000-0004-0000-0000-000031010000}"/>
-    <hyperlink ref="B153" r:id="rId303" xr:uid="{00000000-0004-0000-0000-000032010000}"/>
-    <hyperlink ref="C153" r:id="rId304" xr:uid="{00000000-0004-0000-0000-000033010000}"/>
-    <hyperlink ref="B154" r:id="rId305" xr:uid="{00000000-0004-0000-0000-000034010000}"/>
-    <hyperlink ref="C154" r:id="rId306" xr:uid="{00000000-0004-0000-0000-000035010000}"/>
-    <hyperlink ref="B155" r:id="rId307" xr:uid="{00000000-0004-0000-0000-000038010000}"/>
-    <hyperlink ref="C155" r:id="rId308" xr:uid="{00000000-0004-0000-0000-000039010000}"/>
-    <hyperlink ref="B156" r:id="rId309" xr:uid="{00000000-0004-0000-0000-00003A010000}"/>
-    <hyperlink ref="C156" r:id="rId310" xr:uid="{00000000-0004-0000-0000-00003B010000}"/>
-    <hyperlink ref="B157" r:id="rId311" xr:uid="{00000000-0004-0000-0000-00003C010000}"/>
-    <hyperlink ref="C157" r:id="rId312" xr:uid="{00000000-0004-0000-0000-00003D010000}"/>
-    <hyperlink ref="B158" r:id="rId313" xr:uid="{00000000-0004-0000-0000-00003E010000}"/>
-    <hyperlink ref="C158" r:id="rId314" xr:uid="{00000000-0004-0000-0000-00003F010000}"/>
-    <hyperlink ref="B159" r:id="rId315" xr:uid="{00000000-0004-0000-0000-000040010000}"/>
-    <hyperlink ref="C159" r:id="rId316" xr:uid="{00000000-0004-0000-0000-000041010000}"/>
-    <hyperlink ref="B160" r:id="rId317" xr:uid="{00000000-0004-0000-0000-000042010000}"/>
-    <hyperlink ref="C160" r:id="rId318" xr:uid="{00000000-0004-0000-0000-000043010000}"/>
-    <hyperlink ref="B161" r:id="rId319" xr:uid="{00000000-0004-0000-0000-000044010000}"/>
-    <hyperlink ref="C161" r:id="rId320" xr:uid="{00000000-0004-0000-0000-000045010000}"/>
-    <hyperlink ref="B162" r:id="rId321" xr:uid="{00000000-0004-0000-0000-000046010000}"/>
-    <hyperlink ref="C162" r:id="rId322" xr:uid="{00000000-0004-0000-0000-000047010000}"/>
-    <hyperlink ref="B163" r:id="rId323" xr:uid="{00000000-0004-0000-0000-000048010000}"/>
-    <hyperlink ref="C163" r:id="rId324" xr:uid="{00000000-0004-0000-0000-000049010000}"/>
-    <hyperlink ref="B164" r:id="rId325" xr:uid="{00000000-0004-0000-0000-00004A010000}"/>
-    <hyperlink ref="C164" r:id="rId326" xr:uid="{00000000-0004-0000-0000-00004B010000}"/>
-    <hyperlink ref="B165" r:id="rId327" xr:uid="{00000000-0004-0000-0000-00004C010000}"/>
-    <hyperlink ref="C165" r:id="rId328" xr:uid="{00000000-0004-0000-0000-00004D010000}"/>
-    <hyperlink ref="B166" r:id="rId329" xr:uid="{00000000-0004-0000-0000-00004E010000}"/>
-    <hyperlink ref="C166" r:id="rId330" xr:uid="{00000000-0004-0000-0000-00004F010000}"/>
-    <hyperlink ref="B167" r:id="rId331" xr:uid="{00000000-0004-0000-0000-000050010000}"/>
-    <hyperlink ref="C167" r:id="rId332" xr:uid="{00000000-0004-0000-0000-000051010000}"/>
-    <hyperlink ref="B168" r:id="rId333" xr:uid="{00000000-0004-0000-0000-000052010000}"/>
-    <hyperlink ref="C168" r:id="rId334" xr:uid="{00000000-0004-0000-0000-000053010000}"/>
-    <hyperlink ref="B169" r:id="rId335" xr:uid="{00000000-0004-0000-0000-000054010000}"/>
-    <hyperlink ref="C169" r:id="rId336" xr:uid="{00000000-0004-0000-0000-000055010000}"/>
-    <hyperlink ref="B170" r:id="rId337" xr:uid="{00000000-0004-0000-0000-000056010000}"/>
-    <hyperlink ref="C170" r:id="rId338" xr:uid="{00000000-0004-0000-0000-000057010000}"/>
-    <hyperlink ref="B171" r:id="rId339" xr:uid="{00000000-0004-0000-0000-000058010000}"/>
-    <hyperlink ref="C171" r:id="rId340" xr:uid="{00000000-0004-0000-0000-000059010000}"/>
-    <hyperlink ref="B172" r:id="rId341" xr:uid="{00000000-0004-0000-0000-00005A010000}"/>
-    <hyperlink ref="C172" r:id="rId342" xr:uid="{00000000-0004-0000-0000-00005B010000}"/>
-    <hyperlink ref="B173" r:id="rId343" xr:uid="{00000000-0004-0000-0000-00005C010000}"/>
-    <hyperlink ref="C173" r:id="rId344" xr:uid="{00000000-0004-0000-0000-00005D010000}"/>
-    <hyperlink ref="B174" r:id="rId345" xr:uid="{00000000-0004-0000-0000-00005E010000}"/>
-    <hyperlink ref="C174" r:id="rId346" xr:uid="{00000000-0004-0000-0000-00005F010000}"/>
-    <hyperlink ref="B175" r:id="rId347" xr:uid="{00000000-0004-0000-0000-000062010000}"/>
-    <hyperlink ref="C175" r:id="rId348" xr:uid="{00000000-0004-0000-0000-000063010000}"/>
-    <hyperlink ref="B176" r:id="rId349" xr:uid="{00000000-0004-0000-0000-000064010000}"/>
-    <hyperlink ref="C176" r:id="rId350" xr:uid="{00000000-0004-0000-0000-000065010000}"/>
-    <hyperlink ref="B177" r:id="rId351" xr:uid="{00000000-0004-0000-0000-000066010000}"/>
-    <hyperlink ref="C177" r:id="rId352" xr:uid="{00000000-0004-0000-0000-000067010000}"/>
-    <hyperlink ref="B178" r:id="rId353" xr:uid="{00000000-0004-0000-0000-000068010000}"/>
-    <hyperlink ref="C178" r:id="rId354" xr:uid="{00000000-0004-0000-0000-000069010000}"/>
-    <hyperlink ref="B179" r:id="rId355" xr:uid="{00000000-0004-0000-0000-00006A010000}"/>
-    <hyperlink ref="C179" r:id="rId356" xr:uid="{00000000-0004-0000-0000-00006B010000}"/>
-    <hyperlink ref="B180" r:id="rId357" xr:uid="{00000000-0004-0000-0000-00006C010000}"/>
-    <hyperlink ref="C180" r:id="rId358" xr:uid="{00000000-0004-0000-0000-00006D010000}"/>
-    <hyperlink ref="B181" r:id="rId359" xr:uid="{00000000-0004-0000-0000-00006E010000}"/>
-    <hyperlink ref="C181" r:id="rId360" xr:uid="{00000000-0004-0000-0000-00006F010000}"/>
-    <hyperlink ref="B182" r:id="rId361" xr:uid="{00000000-0004-0000-0000-000070010000}"/>
-    <hyperlink ref="C182" r:id="rId362" xr:uid="{00000000-0004-0000-0000-000071010000}"/>
-    <hyperlink ref="B183" r:id="rId363" xr:uid="{00000000-0004-0000-0000-000072010000}"/>
-    <hyperlink ref="C183" r:id="rId364" xr:uid="{00000000-0004-0000-0000-000073010000}"/>
-    <hyperlink ref="B184" r:id="rId365" xr:uid="{00000000-0004-0000-0000-000074010000}"/>
-    <hyperlink ref="C184" r:id="rId366" xr:uid="{00000000-0004-0000-0000-000075010000}"/>
-    <hyperlink ref="B185" r:id="rId367" xr:uid="{00000000-0004-0000-0000-000076010000}"/>
-    <hyperlink ref="C185" r:id="rId368" xr:uid="{00000000-0004-0000-0000-000077010000}"/>
-    <hyperlink ref="B186" r:id="rId369" xr:uid="{00000000-0004-0000-0000-000078010000}"/>
-    <hyperlink ref="C186" r:id="rId370" xr:uid="{00000000-0004-0000-0000-000079010000}"/>
-    <hyperlink ref="B187" r:id="rId371" xr:uid="{00000000-0004-0000-0000-00007A010000}"/>
-    <hyperlink ref="C187" r:id="rId372" xr:uid="{00000000-0004-0000-0000-00007B010000}"/>
-    <hyperlink ref="B188" r:id="rId373" xr:uid="{00000000-0004-0000-0000-00007C010000}"/>
-    <hyperlink ref="C188" r:id="rId374" xr:uid="{00000000-0004-0000-0000-00007D010000}"/>
-    <hyperlink ref="B189" r:id="rId375" xr:uid="{00000000-0004-0000-0000-00007E010000}"/>
-    <hyperlink ref="C189" r:id="rId376" xr:uid="{00000000-0004-0000-0000-00007F010000}"/>
-    <hyperlink ref="B190" r:id="rId377" xr:uid="{00000000-0004-0000-0000-000080010000}"/>
-    <hyperlink ref="C190" r:id="rId378" xr:uid="{00000000-0004-0000-0000-000081010000}"/>
-    <hyperlink ref="B191" r:id="rId379" xr:uid="{00000000-0004-0000-0000-000082010000}"/>
-    <hyperlink ref="C191" r:id="rId380" xr:uid="{00000000-0004-0000-0000-000083010000}"/>
-    <hyperlink ref="B192" r:id="rId381" xr:uid="{00000000-0004-0000-0000-000084010000}"/>
-    <hyperlink ref="C192" r:id="rId382" xr:uid="{00000000-0004-0000-0000-000085010000}"/>
-    <hyperlink ref="B193" r:id="rId383" xr:uid="{00000000-0004-0000-0000-000086010000}"/>
-    <hyperlink ref="C193" r:id="rId384" xr:uid="{00000000-0004-0000-0000-000087010000}"/>
-    <hyperlink ref="B194" r:id="rId385" xr:uid="{00000000-0004-0000-0000-000088010000}"/>
-    <hyperlink ref="C194" r:id="rId386" xr:uid="{00000000-0004-0000-0000-000089010000}"/>
-    <hyperlink ref="B195" r:id="rId387" xr:uid="{00000000-0004-0000-0000-00008A010000}"/>
-    <hyperlink ref="C195" r:id="rId388" xr:uid="{00000000-0004-0000-0000-00008B010000}"/>
-    <hyperlink ref="B196" r:id="rId389" xr:uid="{00000000-0004-0000-0000-00008C010000}"/>
-    <hyperlink ref="C196" r:id="rId390" xr:uid="{00000000-0004-0000-0000-00008D010000}"/>
-    <hyperlink ref="B197" r:id="rId391" xr:uid="{00000000-0004-0000-0000-00008E010000}"/>
-    <hyperlink ref="C197" r:id="rId392" xr:uid="{00000000-0004-0000-0000-00008F010000}"/>
-    <hyperlink ref="B198" r:id="rId393" xr:uid="{00000000-0004-0000-0000-000090010000}"/>
-    <hyperlink ref="C198" r:id="rId394" xr:uid="{00000000-0004-0000-0000-000091010000}"/>
-    <hyperlink ref="B199" r:id="rId395" xr:uid="{00000000-0004-0000-0000-000092010000}"/>
-    <hyperlink ref="C199" r:id="rId396" xr:uid="{00000000-0004-0000-0000-000093010000}"/>
-    <hyperlink ref="B200" r:id="rId397" xr:uid="{00000000-0004-0000-0000-000094010000}"/>
-    <hyperlink ref="C200" r:id="rId398" xr:uid="{00000000-0004-0000-0000-000095010000}"/>
-    <hyperlink ref="B201" r:id="rId399" xr:uid="{00000000-0004-0000-0000-000096010000}"/>
-    <hyperlink ref="C201" r:id="rId400" xr:uid="{00000000-0004-0000-0000-000097010000}"/>
-    <hyperlink ref="B202" r:id="rId401" xr:uid="{00000000-0004-0000-0000-000098010000}"/>
-    <hyperlink ref="C202" r:id="rId402" xr:uid="{00000000-0004-0000-0000-000099010000}"/>
-    <hyperlink ref="B203" r:id="rId403" xr:uid="{00000000-0004-0000-0000-00009A010000}"/>
-    <hyperlink ref="C203" r:id="rId404" xr:uid="{00000000-0004-0000-0000-00009B010000}"/>
-    <hyperlink ref="B204" r:id="rId405" xr:uid="{00000000-0004-0000-0000-00009C010000}"/>
-    <hyperlink ref="C204" r:id="rId406" xr:uid="{00000000-0004-0000-0000-00009D010000}"/>
-    <hyperlink ref="B205" r:id="rId407" xr:uid="{00000000-0004-0000-0000-00009E010000}"/>
-    <hyperlink ref="C205" r:id="rId408" xr:uid="{00000000-0004-0000-0000-00009F010000}"/>
-    <hyperlink ref="B206" r:id="rId409" xr:uid="{00000000-0004-0000-0000-0000A0010000}"/>
-    <hyperlink ref="C206" r:id="rId410" xr:uid="{00000000-0004-0000-0000-0000A1010000}"/>
-    <hyperlink ref="B207" r:id="rId411" xr:uid="{00000000-0004-0000-0000-0000A2010000}"/>
-    <hyperlink ref="C207" r:id="rId412" xr:uid="{00000000-0004-0000-0000-0000A3010000}"/>
-    <hyperlink ref="B208" r:id="rId413" xr:uid="{00000000-0004-0000-0000-0000A4010000}"/>
-    <hyperlink ref="C208" r:id="rId414" xr:uid="{00000000-0004-0000-0000-0000A5010000}"/>
-    <hyperlink ref="B209" r:id="rId415" xr:uid="{00000000-0004-0000-0000-0000A6010000}"/>
-    <hyperlink ref="C209" r:id="rId416" xr:uid="{00000000-0004-0000-0000-0000A7010000}"/>
-    <hyperlink ref="B210" r:id="rId417" xr:uid="{00000000-0004-0000-0000-0000A8010000}"/>
-    <hyperlink ref="C210" r:id="rId418" xr:uid="{00000000-0004-0000-0000-0000A9010000}"/>
-    <hyperlink ref="B211" r:id="rId419" xr:uid="{00000000-0004-0000-0000-0000AA010000}"/>
-    <hyperlink ref="C211" r:id="rId420" xr:uid="{00000000-0004-0000-0000-0000AB010000}"/>
-    <hyperlink ref="B212" r:id="rId421" xr:uid="{00000000-0004-0000-0000-0000AC010000}"/>
-    <hyperlink ref="C212" r:id="rId422" xr:uid="{00000000-0004-0000-0000-0000AD010000}"/>
-    <hyperlink ref="B213" r:id="rId423" xr:uid="{00000000-0004-0000-0000-0000AE010000}"/>
-    <hyperlink ref="C213" r:id="rId424" xr:uid="{00000000-0004-0000-0000-0000AF010000}"/>
-    <hyperlink ref="B214" r:id="rId425" xr:uid="{00000000-0004-0000-0000-0000B2010000}"/>
-    <hyperlink ref="C214" r:id="rId426" xr:uid="{00000000-0004-0000-0000-0000B3010000}"/>
-    <hyperlink ref="B215" r:id="rId427" xr:uid="{00000000-0004-0000-0000-0000B4010000}"/>
-    <hyperlink ref="C215" r:id="rId428" xr:uid="{00000000-0004-0000-0000-0000B5010000}"/>
-    <hyperlink ref="B216" r:id="rId429" xr:uid="{00000000-0004-0000-0000-0000B6010000}"/>
-    <hyperlink ref="C216" r:id="rId430" xr:uid="{00000000-0004-0000-0000-0000B7010000}"/>
-    <hyperlink ref="B217" r:id="rId431" xr:uid="{00000000-0004-0000-0000-0000B8010000}"/>
-    <hyperlink ref="C217" r:id="rId432" xr:uid="{00000000-0004-0000-0000-0000B9010000}"/>
-    <hyperlink ref="B218" r:id="rId433" xr:uid="{00000000-0004-0000-0000-0000BA010000}"/>
-    <hyperlink ref="C218" r:id="rId434" xr:uid="{00000000-0004-0000-0000-0000BB010000}"/>
-    <hyperlink ref="B219" r:id="rId435" xr:uid="{00000000-0004-0000-0000-0000BC010000}"/>
-    <hyperlink ref="C219" r:id="rId436" xr:uid="{00000000-0004-0000-0000-0000BD010000}"/>
-    <hyperlink ref="B220" r:id="rId437" xr:uid="{00000000-0004-0000-0000-0000BE010000}"/>
-    <hyperlink ref="C220" r:id="rId438" xr:uid="{00000000-0004-0000-0000-0000BF010000}"/>
-    <hyperlink ref="B221" r:id="rId439" xr:uid="{00000000-0004-0000-0000-0000C0010000}"/>
-    <hyperlink ref="C221" r:id="rId440" xr:uid="{00000000-0004-0000-0000-0000C1010000}"/>
-    <hyperlink ref="B222" r:id="rId441" xr:uid="{00000000-0004-0000-0000-0000C2010000}"/>
-    <hyperlink ref="C222" r:id="rId442" xr:uid="{00000000-0004-0000-0000-0000C3010000}"/>
-    <hyperlink ref="B223" r:id="rId443" xr:uid="{00000000-0004-0000-0000-0000C4010000}"/>
-    <hyperlink ref="C223" r:id="rId444" xr:uid="{00000000-0004-0000-0000-0000C5010000}"/>
-    <hyperlink ref="B224" r:id="rId445" xr:uid="{00000000-0004-0000-0000-0000C6010000}"/>
-    <hyperlink ref="C224" r:id="rId446" xr:uid="{00000000-0004-0000-0000-0000C7010000}"/>
-    <hyperlink ref="B225" r:id="rId447" xr:uid="{00000000-0004-0000-0000-0000C8010000}"/>
-    <hyperlink ref="C225" r:id="rId448" xr:uid="{00000000-0004-0000-0000-0000C9010000}"/>
-    <hyperlink ref="B226" r:id="rId449" xr:uid="{00000000-0004-0000-0000-0000CA010000}"/>
-    <hyperlink ref="C226" r:id="rId450" xr:uid="{00000000-0004-0000-0000-0000CB010000}"/>
-    <hyperlink ref="B227" r:id="rId451" xr:uid="{00000000-0004-0000-0000-0000CC010000}"/>
-    <hyperlink ref="C227" r:id="rId452" xr:uid="{00000000-0004-0000-0000-0000CD010000}"/>
-    <hyperlink ref="B228" r:id="rId453" xr:uid="{00000000-0004-0000-0000-0000CE010000}"/>
-    <hyperlink ref="C228" r:id="rId454" xr:uid="{00000000-0004-0000-0000-0000CF010000}"/>
-    <hyperlink ref="B229" r:id="rId455" xr:uid="{00000000-0004-0000-0000-0000D0010000}"/>
-    <hyperlink ref="C229" r:id="rId456" xr:uid="{00000000-0004-0000-0000-0000D1010000}"/>
-    <hyperlink ref="B230" r:id="rId457" xr:uid="{00000000-0004-0000-0000-0000D2010000}"/>
-    <hyperlink ref="C230" r:id="rId458" xr:uid="{00000000-0004-0000-0000-0000D3010000}"/>
-    <hyperlink ref="B231" r:id="rId459" xr:uid="{00000000-0004-0000-0000-0000D4010000}"/>
-    <hyperlink ref="C231" r:id="rId460" xr:uid="{00000000-0004-0000-0000-0000D5010000}"/>
-    <hyperlink ref="B232" r:id="rId461" xr:uid="{00000000-0004-0000-0000-0000D6010000}"/>
-    <hyperlink ref="C232" r:id="rId462" xr:uid="{00000000-0004-0000-0000-0000D7010000}"/>
-    <hyperlink ref="B233" r:id="rId463" xr:uid="{00000000-0004-0000-0000-0000D8010000}"/>
-    <hyperlink ref="C233" r:id="rId464" xr:uid="{00000000-0004-0000-0000-0000D9010000}"/>
-    <hyperlink ref="B234" r:id="rId465" xr:uid="{00000000-0004-0000-0000-0000DA010000}"/>
-    <hyperlink ref="C234" r:id="rId466" xr:uid="{00000000-0004-0000-0000-0000DB010000}"/>
-    <hyperlink ref="B235" r:id="rId467" xr:uid="{00000000-0004-0000-0000-0000DC010000}"/>
-    <hyperlink ref="C235" r:id="rId468" xr:uid="{00000000-0004-0000-0000-0000DD010000}"/>
-    <hyperlink ref="B236" r:id="rId469" xr:uid="{00000000-0004-0000-0000-0000DE010000}"/>
-    <hyperlink ref="C236" r:id="rId470" xr:uid="{00000000-0004-0000-0000-0000DF010000}"/>
-    <hyperlink ref="B237" r:id="rId471" xr:uid="{00000000-0004-0000-0000-0000E0010000}"/>
-    <hyperlink ref="C237" r:id="rId472" xr:uid="{00000000-0004-0000-0000-0000E1010000}"/>
-    <hyperlink ref="B238" r:id="rId473" xr:uid="{00000000-0004-0000-0000-0000E2010000}"/>
-    <hyperlink ref="C238" r:id="rId474" xr:uid="{00000000-0004-0000-0000-0000E3010000}"/>
-    <hyperlink ref="B239" r:id="rId475" xr:uid="{00000000-0004-0000-0000-0000E4010000}"/>
-    <hyperlink ref="C239" r:id="rId476" xr:uid="{00000000-0004-0000-0000-0000E5010000}"/>
-    <hyperlink ref="B240" r:id="rId477" xr:uid="{00000000-0004-0000-0000-0000E6010000}"/>
-    <hyperlink ref="C240" r:id="rId478" xr:uid="{00000000-0004-0000-0000-0000E7010000}"/>
-    <hyperlink ref="B241" r:id="rId479" xr:uid="{00000000-0004-0000-0000-0000E8010000}"/>
-    <hyperlink ref="C241" r:id="rId480" xr:uid="{00000000-0004-0000-0000-0000E9010000}"/>
-    <hyperlink ref="B242" r:id="rId481" xr:uid="{00000000-0004-0000-0000-0000EA010000}"/>
-    <hyperlink ref="C242" r:id="rId482" xr:uid="{00000000-0004-0000-0000-0000EB010000}"/>
-    <hyperlink ref="B243" r:id="rId483" xr:uid="{00000000-0004-0000-0000-0000EC010000}"/>
-    <hyperlink ref="C243" r:id="rId484" xr:uid="{00000000-0004-0000-0000-0000ED010000}"/>
-    <hyperlink ref="B244" r:id="rId485" xr:uid="{00000000-0004-0000-0000-0000EE010000}"/>
-    <hyperlink ref="C244" r:id="rId486" xr:uid="{00000000-0004-0000-0000-0000EF010000}"/>
-    <hyperlink ref="B245" r:id="rId487" xr:uid="{00000000-0004-0000-0000-0000F0010000}"/>
-    <hyperlink ref="C245" r:id="rId488" xr:uid="{00000000-0004-0000-0000-0000F1010000}"/>
-    <hyperlink ref="B246" r:id="rId489" xr:uid="{00000000-0004-0000-0000-0000F4010000}"/>
-    <hyperlink ref="C246" r:id="rId490" xr:uid="{00000000-0004-0000-0000-0000F5010000}"/>
-    <hyperlink ref="B247" r:id="rId491" xr:uid="{00000000-0004-0000-0000-0000F6010000}"/>
-    <hyperlink ref="C247" r:id="rId492" xr:uid="{00000000-0004-0000-0000-0000F7010000}"/>
-    <hyperlink ref="B248" r:id="rId493" xr:uid="{00000000-0004-0000-0000-0000F8010000}"/>
-    <hyperlink ref="C248" r:id="rId494" xr:uid="{00000000-0004-0000-0000-0000F9010000}"/>
-    <hyperlink ref="B249" r:id="rId495" xr:uid="{00000000-0004-0000-0000-0000FA010000}"/>
-    <hyperlink ref="C249" r:id="rId496" xr:uid="{00000000-0004-0000-0000-0000FB010000}"/>
-    <hyperlink ref="B250" r:id="rId497" xr:uid="{00000000-0004-0000-0000-0000FC010000}"/>
-    <hyperlink ref="C250" r:id="rId498" xr:uid="{00000000-0004-0000-0000-0000FD010000}"/>
-    <hyperlink ref="B251" r:id="rId499" xr:uid="{00000000-0004-0000-0000-0000FE010000}"/>
-    <hyperlink ref="C251" r:id="rId500" xr:uid="{00000000-0004-0000-0000-0000FF010000}"/>
-    <hyperlink ref="B252" r:id="rId501" xr:uid="{00000000-0004-0000-0000-000000020000}"/>
-    <hyperlink ref="C252" r:id="rId502" xr:uid="{00000000-0004-0000-0000-000001020000}"/>
-    <hyperlink ref="B253" r:id="rId503" xr:uid="{00000000-0004-0000-0000-000004020000}"/>
-    <hyperlink ref="C253" r:id="rId504" xr:uid="{00000000-0004-0000-0000-000005020000}"/>
-    <hyperlink ref="B254" r:id="rId505" xr:uid="{00000000-0004-0000-0000-000006020000}"/>
-    <hyperlink ref="C254" r:id="rId506" xr:uid="{00000000-0004-0000-0000-000007020000}"/>
-    <hyperlink ref="B255" r:id="rId507" xr:uid="{00000000-0004-0000-0000-000008020000}"/>
-    <hyperlink ref="C255" r:id="rId508" xr:uid="{00000000-0004-0000-0000-000009020000}"/>
-    <hyperlink ref="B256" r:id="rId509" xr:uid="{00000000-0004-0000-0000-00000A020000}"/>
-    <hyperlink ref="C256" r:id="rId510" xr:uid="{00000000-0004-0000-0000-00000B020000}"/>
-    <hyperlink ref="B257" r:id="rId511" xr:uid="{00000000-0004-0000-0000-00000C020000}"/>
-    <hyperlink ref="C257" r:id="rId512" xr:uid="{00000000-0004-0000-0000-00000D020000}"/>
-    <hyperlink ref="B258" r:id="rId513" xr:uid="{00000000-0004-0000-0000-00000E020000}"/>
-    <hyperlink ref="C258" r:id="rId514" xr:uid="{00000000-0004-0000-0000-00000F020000}"/>
-    <hyperlink ref="B259" r:id="rId515" xr:uid="{00000000-0004-0000-0000-000010020000}"/>
-    <hyperlink ref="C259" r:id="rId516" xr:uid="{00000000-0004-0000-0000-000011020000}"/>
-    <hyperlink ref="B260" r:id="rId517" xr:uid="{00000000-0004-0000-0000-000012020000}"/>
-    <hyperlink ref="C260" r:id="rId518" xr:uid="{00000000-0004-0000-0000-000013020000}"/>
-    <hyperlink ref="B261" r:id="rId519" xr:uid="{00000000-0004-0000-0000-000014020000}"/>
-    <hyperlink ref="C261" r:id="rId520" xr:uid="{00000000-0004-0000-0000-000015020000}"/>
-    <hyperlink ref="B262" r:id="rId521" xr:uid="{00000000-0004-0000-0000-000016020000}"/>
-    <hyperlink ref="C262" r:id="rId522" xr:uid="{00000000-0004-0000-0000-000017020000}"/>
-    <hyperlink ref="B263" r:id="rId523" xr:uid="{00000000-0004-0000-0000-000018020000}"/>
-    <hyperlink ref="C263" r:id="rId524" xr:uid="{00000000-0004-0000-0000-000019020000}"/>
-    <hyperlink ref="B264" r:id="rId525" xr:uid="{55FA512C-C843-4915-85F7-06B366A78B41}"/>
-    <hyperlink ref="C264" r:id="rId526" xr:uid="{FD7BE261-6A6F-4511-8D4C-EE63DF72BBE6}"/>
+    <hyperlink ref="B55" r:id="rId107" xr:uid="{00000000-0004-0000-0000-00006C000000}"/>
+    <hyperlink ref="C55" r:id="rId108" xr:uid="{00000000-0004-0000-0000-00006D000000}"/>
+    <hyperlink ref="B56" r:id="rId109" xr:uid="{00000000-0004-0000-0000-00006E000000}"/>
+    <hyperlink ref="C56" r:id="rId110" xr:uid="{00000000-0004-0000-0000-00006F000000}"/>
+    <hyperlink ref="B57" r:id="rId111" xr:uid="{00000000-0004-0000-0000-000070000000}"/>
+    <hyperlink ref="C57" r:id="rId112" xr:uid="{00000000-0004-0000-0000-000071000000}"/>
+    <hyperlink ref="B58" r:id="rId113" xr:uid="{00000000-0004-0000-0000-000072000000}"/>
+    <hyperlink ref="C58" r:id="rId114" xr:uid="{00000000-0004-0000-0000-000073000000}"/>
+    <hyperlink ref="B59" r:id="rId115" xr:uid="{00000000-0004-0000-0000-000074000000}"/>
+    <hyperlink ref="C59" r:id="rId116" xr:uid="{00000000-0004-0000-0000-000075000000}"/>
+    <hyperlink ref="B60" r:id="rId117" xr:uid="{00000000-0004-0000-0000-000076000000}"/>
+    <hyperlink ref="C60" r:id="rId118" xr:uid="{00000000-0004-0000-0000-000077000000}"/>
+    <hyperlink ref="B61" r:id="rId119" xr:uid="{00000000-0004-0000-0000-000078000000}"/>
+    <hyperlink ref="C61" r:id="rId120" xr:uid="{00000000-0004-0000-0000-000079000000}"/>
+    <hyperlink ref="B62" r:id="rId121" xr:uid="{00000000-0004-0000-0000-00007A000000}"/>
+    <hyperlink ref="C62" r:id="rId122" xr:uid="{00000000-0004-0000-0000-00007B000000}"/>
+    <hyperlink ref="B63" r:id="rId123" xr:uid="{00000000-0004-0000-0000-00007C000000}"/>
+    <hyperlink ref="C63" r:id="rId124" xr:uid="{00000000-0004-0000-0000-00007D000000}"/>
+    <hyperlink ref="B64" r:id="rId125" xr:uid="{00000000-0004-0000-0000-00007E000000}"/>
+    <hyperlink ref="C64" r:id="rId126" xr:uid="{00000000-0004-0000-0000-00007F000000}"/>
+    <hyperlink ref="B65" r:id="rId127" xr:uid="{00000000-0004-0000-0000-000080000000}"/>
+    <hyperlink ref="C65" r:id="rId128" xr:uid="{00000000-0004-0000-0000-000081000000}"/>
+    <hyperlink ref="B66" r:id="rId129" xr:uid="{00000000-0004-0000-0000-000082000000}"/>
+    <hyperlink ref="C66" r:id="rId130" xr:uid="{00000000-0004-0000-0000-000083000000}"/>
+    <hyperlink ref="B67" r:id="rId131" xr:uid="{00000000-0004-0000-0000-000084000000}"/>
+    <hyperlink ref="C67" r:id="rId132" xr:uid="{00000000-0004-0000-0000-000085000000}"/>
+    <hyperlink ref="B68" r:id="rId133" xr:uid="{00000000-0004-0000-0000-000086000000}"/>
+    <hyperlink ref="C68" r:id="rId134" xr:uid="{00000000-0004-0000-0000-000087000000}"/>
+    <hyperlink ref="B69" r:id="rId135" xr:uid="{00000000-0004-0000-0000-000088000000}"/>
+    <hyperlink ref="C69" r:id="rId136" xr:uid="{00000000-0004-0000-0000-000089000000}"/>
+    <hyperlink ref="B70" r:id="rId137" xr:uid="{00000000-0004-0000-0000-00008A000000}"/>
+    <hyperlink ref="C70" r:id="rId138" xr:uid="{00000000-0004-0000-0000-00008B000000}"/>
+    <hyperlink ref="B71" r:id="rId139" xr:uid="{00000000-0004-0000-0000-00008C000000}"/>
+    <hyperlink ref="C71" r:id="rId140" xr:uid="{00000000-0004-0000-0000-00008D000000}"/>
+    <hyperlink ref="B72" r:id="rId141" xr:uid="{00000000-0004-0000-0000-00008E000000}"/>
+    <hyperlink ref="C72" r:id="rId142" xr:uid="{00000000-0004-0000-0000-00008F000000}"/>
+    <hyperlink ref="B73" r:id="rId143" xr:uid="{00000000-0004-0000-0000-000090000000}"/>
+    <hyperlink ref="C73" r:id="rId144" xr:uid="{00000000-0004-0000-0000-000091000000}"/>
+    <hyperlink ref="B74" r:id="rId145" xr:uid="{00000000-0004-0000-0000-000092000000}"/>
+    <hyperlink ref="C74" r:id="rId146" xr:uid="{00000000-0004-0000-0000-000093000000}"/>
+    <hyperlink ref="B75" r:id="rId147" xr:uid="{00000000-0004-0000-0000-000094000000}"/>
+    <hyperlink ref="C75" r:id="rId148" xr:uid="{00000000-0004-0000-0000-000095000000}"/>
+    <hyperlink ref="B76" r:id="rId149" xr:uid="{00000000-0004-0000-0000-000096000000}"/>
+    <hyperlink ref="C76" r:id="rId150" xr:uid="{00000000-0004-0000-0000-000097000000}"/>
+    <hyperlink ref="B77" r:id="rId151" xr:uid="{00000000-0004-0000-0000-000098000000}"/>
+    <hyperlink ref="C77" r:id="rId152" xr:uid="{00000000-0004-0000-0000-000099000000}"/>
+    <hyperlink ref="B78" r:id="rId153" xr:uid="{00000000-0004-0000-0000-00009A000000}"/>
+    <hyperlink ref="C78" r:id="rId154" xr:uid="{00000000-0004-0000-0000-00009B000000}"/>
+    <hyperlink ref="B79" r:id="rId155" xr:uid="{00000000-0004-0000-0000-00009C000000}"/>
+    <hyperlink ref="C79" r:id="rId156" xr:uid="{00000000-0004-0000-0000-00009D000000}"/>
+    <hyperlink ref="B80" r:id="rId157" xr:uid="{00000000-0004-0000-0000-00009E000000}"/>
+    <hyperlink ref="C80" r:id="rId158" xr:uid="{00000000-0004-0000-0000-00009F000000}"/>
+    <hyperlink ref="B81" r:id="rId159" xr:uid="{00000000-0004-0000-0000-0000A2000000}"/>
+    <hyperlink ref="C81" r:id="rId160" xr:uid="{00000000-0004-0000-0000-0000A3000000}"/>
+    <hyperlink ref="B82" r:id="rId161" xr:uid="{00000000-0004-0000-0000-0000A4000000}"/>
+    <hyperlink ref="C82" r:id="rId162" xr:uid="{00000000-0004-0000-0000-0000A5000000}"/>
+    <hyperlink ref="B83" r:id="rId163" xr:uid="{00000000-0004-0000-0000-0000A6000000}"/>
+    <hyperlink ref="C83" r:id="rId164" xr:uid="{00000000-0004-0000-0000-0000A7000000}"/>
+    <hyperlink ref="B84" r:id="rId165" xr:uid="{00000000-0004-0000-0000-0000A8000000}"/>
+    <hyperlink ref="C84" r:id="rId166" xr:uid="{00000000-0004-0000-0000-0000A9000000}"/>
+    <hyperlink ref="B85" r:id="rId167" xr:uid="{00000000-0004-0000-0000-0000AA000000}"/>
+    <hyperlink ref="C85" r:id="rId168" xr:uid="{00000000-0004-0000-0000-0000AB000000}"/>
+    <hyperlink ref="B86" r:id="rId169" xr:uid="{00000000-0004-0000-0000-0000AC000000}"/>
+    <hyperlink ref="C86" r:id="rId170" xr:uid="{00000000-0004-0000-0000-0000AD000000}"/>
+    <hyperlink ref="B87" r:id="rId171" xr:uid="{00000000-0004-0000-0000-0000AE000000}"/>
+    <hyperlink ref="C87" r:id="rId172" xr:uid="{00000000-0004-0000-0000-0000AF000000}"/>
+    <hyperlink ref="B88" r:id="rId173" xr:uid="{00000000-0004-0000-0000-0000B0000000}"/>
+    <hyperlink ref="C88" r:id="rId174" xr:uid="{00000000-0004-0000-0000-0000B1000000}"/>
+    <hyperlink ref="B89" r:id="rId175" xr:uid="{00000000-0004-0000-0000-0000B2000000}"/>
+    <hyperlink ref="C89" r:id="rId176" xr:uid="{00000000-0004-0000-0000-0000B3000000}"/>
+    <hyperlink ref="B90" r:id="rId177" xr:uid="{00000000-0004-0000-0000-0000B4000000}"/>
+    <hyperlink ref="C90" r:id="rId178" xr:uid="{00000000-0004-0000-0000-0000B5000000}"/>
+    <hyperlink ref="B91" r:id="rId179" xr:uid="{00000000-0004-0000-0000-0000B6000000}"/>
+    <hyperlink ref="C91" r:id="rId180" xr:uid="{00000000-0004-0000-0000-0000B7000000}"/>
+    <hyperlink ref="B92" r:id="rId181" xr:uid="{00000000-0004-0000-0000-0000B8000000}"/>
+    <hyperlink ref="C92" r:id="rId182" xr:uid="{00000000-0004-0000-0000-0000B9000000}"/>
+    <hyperlink ref="B93" r:id="rId183" xr:uid="{00000000-0004-0000-0000-0000BA000000}"/>
+    <hyperlink ref="C93" r:id="rId184" xr:uid="{00000000-0004-0000-0000-0000BB000000}"/>
+    <hyperlink ref="B94" r:id="rId185" xr:uid="{00000000-0004-0000-0000-0000BC000000}"/>
+    <hyperlink ref="C94" r:id="rId186" xr:uid="{00000000-0004-0000-0000-0000BD000000}"/>
+    <hyperlink ref="B95" r:id="rId187" xr:uid="{00000000-0004-0000-0000-0000BE000000}"/>
+    <hyperlink ref="C95" r:id="rId188" xr:uid="{00000000-0004-0000-0000-0000BF000000}"/>
+    <hyperlink ref="B96" r:id="rId189" xr:uid="{00000000-0004-0000-0000-0000C0000000}"/>
+    <hyperlink ref="C96" r:id="rId190" xr:uid="{00000000-0004-0000-0000-0000C1000000}"/>
+    <hyperlink ref="B97" r:id="rId191" xr:uid="{00000000-0004-0000-0000-0000C2000000}"/>
+    <hyperlink ref="C97" r:id="rId192" xr:uid="{00000000-0004-0000-0000-0000C3000000}"/>
+    <hyperlink ref="B98" r:id="rId193" xr:uid="{00000000-0004-0000-0000-0000C4000000}"/>
+    <hyperlink ref="C98" r:id="rId194" xr:uid="{00000000-0004-0000-0000-0000C5000000}"/>
+    <hyperlink ref="B99" r:id="rId195" xr:uid="{00000000-0004-0000-0000-0000C6000000}"/>
+    <hyperlink ref="C99" r:id="rId196" xr:uid="{00000000-0004-0000-0000-0000C7000000}"/>
+    <hyperlink ref="B100" r:id="rId197" xr:uid="{00000000-0004-0000-0000-0000C8000000}"/>
+    <hyperlink ref="C100" r:id="rId198" xr:uid="{00000000-0004-0000-0000-0000C9000000}"/>
+    <hyperlink ref="B101" r:id="rId199" xr:uid="{00000000-0004-0000-0000-0000CA000000}"/>
+    <hyperlink ref="C101" r:id="rId200" xr:uid="{00000000-0004-0000-0000-0000CB000000}"/>
+    <hyperlink ref="B102" r:id="rId201" xr:uid="{00000000-0004-0000-0000-0000CC000000}"/>
+    <hyperlink ref="C102" r:id="rId202" xr:uid="{00000000-0004-0000-0000-0000CD000000}"/>
+    <hyperlink ref="B103" r:id="rId203" xr:uid="{00000000-0004-0000-0000-0000CE000000}"/>
+    <hyperlink ref="C103" r:id="rId204" xr:uid="{00000000-0004-0000-0000-0000CF000000}"/>
+    <hyperlink ref="B104" r:id="rId205" xr:uid="{00000000-0004-0000-0000-0000D0000000}"/>
+    <hyperlink ref="C104" r:id="rId206" xr:uid="{00000000-0004-0000-0000-0000D1000000}"/>
+    <hyperlink ref="B105" r:id="rId207" xr:uid="{00000000-0004-0000-0000-0000D2000000}"/>
+    <hyperlink ref="C105" r:id="rId208" xr:uid="{00000000-0004-0000-0000-0000D3000000}"/>
+    <hyperlink ref="B106" r:id="rId209" xr:uid="{00000000-0004-0000-0000-0000D4000000}"/>
+    <hyperlink ref="C106" r:id="rId210" xr:uid="{00000000-0004-0000-0000-0000D5000000}"/>
+    <hyperlink ref="B107" r:id="rId211" xr:uid="{00000000-0004-0000-0000-0000D6000000}"/>
+    <hyperlink ref="C107" r:id="rId212" xr:uid="{00000000-0004-0000-0000-0000D7000000}"/>
+    <hyperlink ref="B108" r:id="rId213" xr:uid="{00000000-0004-0000-0000-0000D8000000}"/>
+    <hyperlink ref="C108" r:id="rId214" xr:uid="{00000000-0004-0000-0000-0000D9000000}"/>
+    <hyperlink ref="B109" r:id="rId215" xr:uid="{00000000-0004-0000-0000-0000DA000000}"/>
+    <hyperlink ref="C109" r:id="rId216" xr:uid="{00000000-0004-0000-0000-0000DB000000}"/>
+    <hyperlink ref="B110" r:id="rId217" xr:uid="{00000000-0004-0000-0000-0000DC000000}"/>
+    <hyperlink ref="C110" r:id="rId218" xr:uid="{00000000-0004-0000-0000-0000DD000000}"/>
+    <hyperlink ref="B111" r:id="rId219" xr:uid="{00000000-0004-0000-0000-0000DE000000}"/>
+    <hyperlink ref="C111" r:id="rId220" xr:uid="{00000000-0004-0000-0000-0000DF000000}"/>
+    <hyperlink ref="B112" r:id="rId221" xr:uid="{00000000-0004-0000-0000-0000E0000000}"/>
+    <hyperlink ref="C112" r:id="rId222" xr:uid="{00000000-0004-0000-0000-0000E1000000}"/>
+    <hyperlink ref="B113" r:id="rId223" xr:uid="{00000000-0004-0000-0000-0000E2000000}"/>
+    <hyperlink ref="C113" r:id="rId224" xr:uid="{00000000-0004-0000-0000-0000E3000000}"/>
+    <hyperlink ref="B114" r:id="rId225" xr:uid="{00000000-0004-0000-0000-0000E4000000}"/>
+    <hyperlink ref="C114" r:id="rId226" xr:uid="{00000000-0004-0000-0000-0000E5000000}"/>
+    <hyperlink ref="B115" r:id="rId227" xr:uid="{00000000-0004-0000-0000-0000E6000000}"/>
+    <hyperlink ref="C115" r:id="rId228" xr:uid="{00000000-0004-0000-0000-0000E7000000}"/>
+    <hyperlink ref="B116" r:id="rId229" xr:uid="{00000000-0004-0000-0000-0000E8000000}"/>
+    <hyperlink ref="C116" r:id="rId230" xr:uid="{00000000-0004-0000-0000-0000E9000000}"/>
+    <hyperlink ref="B117" r:id="rId231" xr:uid="{00000000-0004-0000-0000-0000EA000000}"/>
+    <hyperlink ref="C117" r:id="rId232" xr:uid="{00000000-0004-0000-0000-0000EB000000}"/>
+    <hyperlink ref="B118" r:id="rId233" xr:uid="{00000000-0004-0000-0000-0000EC000000}"/>
+    <hyperlink ref="C118" r:id="rId234" xr:uid="{00000000-0004-0000-0000-0000ED000000}"/>
+    <hyperlink ref="B119" r:id="rId235" xr:uid="{00000000-0004-0000-0000-0000EE000000}"/>
+    <hyperlink ref="C119" r:id="rId236" xr:uid="{00000000-0004-0000-0000-0000EF000000}"/>
+    <hyperlink ref="B120" r:id="rId237" xr:uid="{00000000-0004-0000-0000-0000F0000000}"/>
+    <hyperlink ref="C120" r:id="rId238" xr:uid="{00000000-0004-0000-0000-0000F1000000}"/>
+    <hyperlink ref="B121" r:id="rId239" xr:uid="{00000000-0004-0000-0000-0000F2000000}"/>
+    <hyperlink ref="C121" r:id="rId240" xr:uid="{00000000-0004-0000-0000-0000F3000000}"/>
+    <hyperlink ref="B122" r:id="rId241" xr:uid="{00000000-0004-0000-0000-0000F4000000}"/>
+    <hyperlink ref="C122" r:id="rId242" xr:uid="{00000000-0004-0000-0000-0000F5000000}"/>
+    <hyperlink ref="B123" r:id="rId243" xr:uid="{00000000-0004-0000-0000-0000F6000000}"/>
+    <hyperlink ref="C123" r:id="rId244" xr:uid="{00000000-0004-0000-0000-0000F7000000}"/>
+    <hyperlink ref="B124" r:id="rId245" xr:uid="{00000000-0004-0000-0000-0000F8000000}"/>
+    <hyperlink ref="C124" r:id="rId246" xr:uid="{00000000-0004-0000-0000-0000F9000000}"/>
+    <hyperlink ref="B125" r:id="rId247" xr:uid="{00000000-0004-0000-0000-0000FA000000}"/>
+    <hyperlink ref="C125" r:id="rId248" xr:uid="{00000000-0004-0000-0000-0000FB000000}"/>
+    <hyperlink ref="B126" r:id="rId249" xr:uid="{00000000-0004-0000-0000-0000FC000000}"/>
+    <hyperlink ref="C126" r:id="rId250" xr:uid="{00000000-0004-0000-0000-0000FD000000}"/>
+    <hyperlink ref="B127" r:id="rId251" xr:uid="{00000000-0004-0000-0000-0000FE000000}"/>
+    <hyperlink ref="C127" r:id="rId252" xr:uid="{00000000-0004-0000-0000-0000FF000000}"/>
+    <hyperlink ref="B128" r:id="rId253" xr:uid="{00000000-0004-0000-0000-000000010000}"/>
+    <hyperlink ref="C128" r:id="rId254" xr:uid="{00000000-0004-0000-0000-000001010000}"/>
+    <hyperlink ref="B129" r:id="rId255" xr:uid="{00000000-0004-0000-0000-000002010000}"/>
+    <hyperlink ref="C129" r:id="rId256" xr:uid="{00000000-0004-0000-0000-000003010000}"/>
+    <hyperlink ref="B130" r:id="rId257" xr:uid="{00000000-0004-0000-0000-000006010000}"/>
+    <hyperlink ref="C130" r:id="rId258" xr:uid="{00000000-0004-0000-0000-000007010000}"/>
+    <hyperlink ref="B131" r:id="rId259" xr:uid="{00000000-0004-0000-0000-000008010000}"/>
+    <hyperlink ref="C131" r:id="rId260" xr:uid="{00000000-0004-0000-0000-000009010000}"/>
+    <hyperlink ref="B132" r:id="rId261" xr:uid="{00000000-0004-0000-0000-00000A010000}"/>
+    <hyperlink ref="C132" r:id="rId262" xr:uid="{00000000-0004-0000-0000-00000B010000}"/>
+    <hyperlink ref="B133" r:id="rId263" xr:uid="{00000000-0004-0000-0000-00000C010000}"/>
+    <hyperlink ref="C133" r:id="rId264" xr:uid="{00000000-0004-0000-0000-00000D010000}"/>
+    <hyperlink ref="B134" r:id="rId265" xr:uid="{00000000-0004-0000-0000-00000E010000}"/>
+    <hyperlink ref="C134" r:id="rId266" xr:uid="{00000000-0004-0000-0000-00000F010000}"/>
+    <hyperlink ref="B135" r:id="rId267" xr:uid="{00000000-0004-0000-0000-000010010000}"/>
+    <hyperlink ref="C135" r:id="rId268" xr:uid="{00000000-0004-0000-0000-000011010000}"/>
+    <hyperlink ref="B136" r:id="rId269" xr:uid="{00000000-0004-0000-0000-000012010000}"/>
+    <hyperlink ref="C136" r:id="rId270" xr:uid="{00000000-0004-0000-0000-000013010000}"/>
+    <hyperlink ref="B137" r:id="rId271" xr:uid="{00000000-0004-0000-0000-000014010000}"/>
+    <hyperlink ref="C137" r:id="rId272" xr:uid="{00000000-0004-0000-0000-000015010000}"/>
+    <hyperlink ref="B138" r:id="rId273" xr:uid="{00000000-0004-0000-0000-000016010000}"/>
+    <hyperlink ref="C138" r:id="rId274" xr:uid="{00000000-0004-0000-0000-000017010000}"/>
+    <hyperlink ref="B139" r:id="rId275" xr:uid="{00000000-0004-0000-0000-000018010000}"/>
+    <hyperlink ref="C139" r:id="rId276" xr:uid="{00000000-0004-0000-0000-000019010000}"/>
+    <hyperlink ref="B140" r:id="rId277" xr:uid="{00000000-0004-0000-0000-00001A010000}"/>
+    <hyperlink ref="C140" r:id="rId278" xr:uid="{00000000-0004-0000-0000-00001B010000}"/>
+    <hyperlink ref="B141" r:id="rId279" xr:uid="{00000000-0004-0000-0000-00001C010000}"/>
+    <hyperlink ref="C141" r:id="rId280" xr:uid="{00000000-0004-0000-0000-00001D010000}"/>
+    <hyperlink ref="B142" r:id="rId281" xr:uid="{00000000-0004-0000-0000-00001E010000}"/>
+    <hyperlink ref="C142" r:id="rId282" xr:uid="{00000000-0004-0000-0000-00001F010000}"/>
+    <hyperlink ref="B143" r:id="rId283" xr:uid="{00000000-0004-0000-0000-000020010000}"/>
+    <hyperlink ref="C143" r:id="rId284" xr:uid="{00000000-0004-0000-0000-000021010000}"/>
+    <hyperlink ref="B144" r:id="rId285" xr:uid="{00000000-0004-0000-0000-000022010000}"/>
+    <hyperlink ref="C144" r:id="rId286" xr:uid="{00000000-0004-0000-0000-000023010000}"/>
+    <hyperlink ref="B145" r:id="rId287" xr:uid="{00000000-0004-0000-0000-000024010000}"/>
+    <hyperlink ref="C145" r:id="rId288" xr:uid="{00000000-0004-0000-0000-000025010000}"/>
+    <hyperlink ref="B146" r:id="rId289" xr:uid="{00000000-0004-0000-0000-000026010000}"/>
+    <hyperlink ref="C146" r:id="rId290" xr:uid="{00000000-0004-0000-0000-000027010000}"/>
+    <hyperlink ref="B147" r:id="rId291" xr:uid="{00000000-0004-0000-0000-000028010000}"/>
+    <hyperlink ref="C147" r:id="rId292" xr:uid="{00000000-0004-0000-0000-000029010000}"/>
+    <hyperlink ref="B148" r:id="rId293" xr:uid="{00000000-0004-0000-0000-00002A010000}"/>
+    <hyperlink ref="C148" r:id="rId294" xr:uid="{00000000-0004-0000-0000-00002B010000}"/>
+    <hyperlink ref="B149" r:id="rId295" xr:uid="{00000000-0004-0000-0000-00002C010000}"/>
+    <hyperlink ref="C149" r:id="rId296" xr:uid="{00000000-0004-0000-0000-00002D010000}"/>
+    <hyperlink ref="B150" r:id="rId297" xr:uid="{00000000-0004-0000-0000-00002E010000}"/>
+    <hyperlink ref="C150" r:id="rId298" xr:uid="{00000000-0004-0000-0000-00002F010000}"/>
+    <hyperlink ref="B151" r:id="rId299" xr:uid="{00000000-0004-0000-0000-000030010000}"/>
+    <hyperlink ref="C151" r:id="rId300" xr:uid="{00000000-0004-0000-0000-000031010000}"/>
+    <hyperlink ref="B152" r:id="rId301" xr:uid="{00000000-0004-0000-0000-000032010000}"/>
+    <hyperlink ref="C152" r:id="rId302" xr:uid="{00000000-0004-0000-0000-000033010000}"/>
+    <hyperlink ref="B153" r:id="rId303" xr:uid="{00000000-0004-0000-0000-000034010000}"/>
+    <hyperlink ref="C153" r:id="rId304" xr:uid="{00000000-0004-0000-0000-000035010000}"/>
+    <hyperlink ref="B154" r:id="rId305" xr:uid="{00000000-0004-0000-0000-000038010000}"/>
+    <hyperlink ref="C154" r:id="rId306" xr:uid="{00000000-0004-0000-0000-000039010000}"/>
+    <hyperlink ref="B155" r:id="rId307" xr:uid="{00000000-0004-0000-0000-00003A010000}"/>
+    <hyperlink ref="C155" r:id="rId308" xr:uid="{00000000-0004-0000-0000-00003B010000}"/>
+    <hyperlink ref="B156" r:id="rId309" xr:uid="{00000000-0004-0000-0000-00003C010000}"/>
+    <hyperlink ref="C156" r:id="rId310" xr:uid="{00000000-0004-0000-0000-00003D010000}"/>
+    <hyperlink ref="B157" r:id="rId311" xr:uid="{00000000-0004-0000-0000-00003E010000}"/>
+    <hyperlink ref="C157" r:id="rId312" xr:uid="{00000000-0004-0000-0000-00003F010000}"/>
+    <hyperlink ref="B158" r:id="rId313" xr:uid="{00000000-0004-0000-0000-000040010000}"/>
+    <hyperlink ref="C158" r:id="rId314" xr:uid="{00000000-0004-0000-0000-000041010000}"/>
+    <hyperlink ref="B159" r:id="rId315" xr:uid="{00000000-0004-0000-0000-000042010000}"/>
+    <hyperlink ref="C159" r:id="rId316" xr:uid="{00000000-0004-0000-0000-000043010000}"/>
+    <hyperlink ref="B160" r:id="rId317" xr:uid="{00000000-0004-0000-0000-000044010000}"/>
+    <hyperlink ref="C160" r:id="rId318" xr:uid="{00000000-0004-0000-0000-000045010000}"/>
+    <hyperlink ref="B161" r:id="rId319" xr:uid="{00000000-0004-0000-0000-000046010000}"/>
+    <hyperlink ref="C161" r:id="rId320" xr:uid="{00000000-0004-0000-0000-000047010000}"/>
+    <hyperlink ref="B162" r:id="rId321" xr:uid="{00000000-0004-0000-0000-000048010000}"/>
+    <hyperlink ref="C162" r:id="rId322" xr:uid="{00000000-0004-0000-0000-000049010000}"/>
+    <hyperlink ref="B163" r:id="rId323" xr:uid="{00000000-0004-0000-0000-00004A010000}"/>
+    <hyperlink ref="C163" r:id="rId324" xr:uid="{00000000-0004-0000-0000-00004B010000}"/>
+    <hyperlink ref="B164" r:id="rId325" xr:uid="{00000000-0004-0000-0000-00004C010000}"/>
+    <hyperlink ref="C164" r:id="rId326" xr:uid="{00000000-0004-0000-0000-00004D010000}"/>
+    <hyperlink ref="B165" r:id="rId327" xr:uid="{00000000-0004-0000-0000-00004E010000}"/>
+    <hyperlink ref="C165" r:id="rId328" xr:uid="{00000000-0004-0000-0000-00004F010000}"/>
+    <hyperlink ref="B166" r:id="rId329" xr:uid="{00000000-0004-0000-0000-000050010000}"/>
+    <hyperlink ref="C166" r:id="rId330" xr:uid="{00000000-0004-0000-0000-000051010000}"/>
+    <hyperlink ref="B167" r:id="rId331" xr:uid="{00000000-0004-0000-0000-000052010000}"/>
+    <hyperlink ref="C167" r:id="rId332" xr:uid="{00000000-0004-0000-0000-000053010000}"/>
+    <hyperlink ref="B168" r:id="rId333" xr:uid="{00000000-0004-0000-0000-000054010000}"/>
+    <hyperlink ref="C168" r:id="rId334" xr:uid="{00000000-0004-0000-0000-000055010000}"/>
+    <hyperlink ref="B169" r:id="rId335" xr:uid="{00000000-0004-0000-0000-000056010000}"/>
+    <hyperlink ref="C169" r:id="rId336" xr:uid="{00000000-0004-0000-0000-000057010000}"/>
+    <hyperlink ref="B170" r:id="rId337" xr:uid="{00000000-0004-0000-0000-000058010000}"/>
+    <hyperlink ref="C170" r:id="rId338" xr:uid="{00000000-0004-0000-0000-000059010000}"/>
+    <hyperlink ref="B171" r:id="rId339" xr:uid="{00000000-0004-0000-0000-00005A010000}"/>
+    <hyperlink ref="C171" r:id="rId340" xr:uid="{00000000-0004-0000-0000-00005B010000}"/>
+    <hyperlink ref="B172" r:id="rId341" xr:uid="{00000000-0004-0000-0000-00005C010000}"/>
+    <hyperlink ref="C172" r:id="rId342" xr:uid="{00000000-0004-0000-0000-00005D010000}"/>
+    <hyperlink ref="B173" r:id="rId343" xr:uid="{00000000-0004-0000-0000-00005E010000}"/>
+    <hyperlink ref="C173" r:id="rId344" xr:uid="{00000000-0004-0000-0000-00005F010000}"/>
+    <hyperlink ref="B174" r:id="rId345" xr:uid="{00000000-0004-0000-0000-000062010000}"/>
+    <hyperlink ref="C174" r:id="rId346" xr:uid="{00000000-0004-0000-0000-000063010000}"/>
+    <hyperlink ref="B175" r:id="rId347" xr:uid="{00000000-0004-0000-0000-000064010000}"/>
+    <hyperlink ref="C175" r:id="rId348" xr:uid="{00000000-0004-0000-0000-000065010000}"/>
+    <hyperlink ref="B176" r:id="rId349" xr:uid="{00000000-0004-0000-0000-000066010000}"/>
+    <hyperlink ref="C176" r:id="rId350" xr:uid="{00000000-0004-0000-0000-000067010000}"/>
+    <hyperlink ref="B177" r:id="rId351" xr:uid="{00000000-0004-0000-0000-000068010000}"/>
+    <hyperlink ref="C177" r:id="rId352" xr:uid="{00000000-0004-0000-0000-000069010000}"/>
+    <hyperlink ref="B178" r:id="rId353" xr:uid="{00000000-0004-0000-0000-00006A010000}"/>
+    <hyperlink ref="C178" r:id="rId354" xr:uid="{00000000-0004-0000-0000-00006B010000}"/>
+    <hyperlink ref="B179" r:id="rId355" xr:uid="{00000000-0004-0000-0000-00006C010000}"/>
+    <hyperlink ref="C179" r:id="rId356" xr:uid="{00000000-0004-0000-0000-00006D010000}"/>
+    <hyperlink ref="B180" r:id="rId357" xr:uid="{00000000-0004-0000-0000-00006E010000}"/>
+    <hyperlink ref="C180" r:id="rId358" xr:uid="{00000000-0004-0000-0000-00006F010000}"/>
+    <hyperlink ref="B181" r:id="rId359" xr:uid="{00000000-0004-0000-0000-000070010000}"/>
+    <hyperlink ref="C181" r:id="rId360" xr:uid="{00000000-0004-0000-0000-000071010000}"/>
+    <hyperlink ref="B182" r:id="rId361" xr:uid="{00000000-0004-0000-0000-000072010000}"/>
+    <hyperlink ref="C182" r:id="rId362" xr:uid="{00000000-0004-0000-0000-000073010000}"/>
+    <hyperlink ref="B183" r:id="rId363" xr:uid="{00000000-0004-0000-0000-000074010000}"/>
+    <hyperlink ref="C183" r:id="rId364" xr:uid="{00000000-0004-0000-0000-000075010000}"/>
+    <hyperlink ref="B184" r:id="rId365" xr:uid="{00000000-0004-0000-0000-000076010000}"/>
+    <hyperlink ref="C184" r:id="rId366" xr:uid="{00000000-0004-0000-0000-000077010000}"/>
+    <hyperlink ref="B185" r:id="rId367" xr:uid="{00000000-0004-0000-0000-000078010000}"/>
+    <hyperlink ref="C185" r:id="rId368" xr:uid="{00000000-0004-0000-0000-000079010000}"/>
+    <hyperlink ref="B186" r:id="rId369" xr:uid="{00000000-0004-0000-0000-00007A010000}"/>
+    <hyperlink ref="C186" r:id="rId370" xr:uid="{00000000-0004-0000-0000-00007B010000}"/>
+    <hyperlink ref="B187" r:id="rId371" xr:uid="{00000000-0004-0000-0000-00007C010000}"/>
+    <hyperlink ref="C187" r:id="rId372" xr:uid="{00000000-0004-0000-0000-00007D010000}"/>
+    <hyperlink ref="B188" r:id="rId373" xr:uid="{00000000-0004-0000-0000-00007E010000}"/>
+    <hyperlink ref="C188" r:id="rId374" xr:uid="{00000000-0004-0000-0000-00007F010000}"/>
+    <hyperlink ref="B189" r:id="rId375" xr:uid="{00000000-0004-0000-0000-000080010000}"/>
+    <hyperlink ref="C189" r:id="rId376" xr:uid="{00000000-0004-0000-0000-000081010000}"/>
+    <hyperlink ref="B190" r:id="rId377" xr:uid="{00000000-0004-0000-0000-000082010000}"/>
+    <hyperlink ref="C190" r:id="rId378" xr:uid="{00000000-0004-0000-0000-000083010000}"/>
+    <hyperlink ref="B191" r:id="rId379" xr:uid="{00000000-0004-0000-0000-000084010000}"/>
+    <hyperlink ref="C191" r:id="rId380" xr:uid="{00000000-0004-0000-0000-000085010000}"/>
+    <hyperlink ref="B192" r:id="rId381" xr:uid="{00000000-0004-0000-0000-000086010000}"/>
+    <hyperlink ref="C192" r:id="rId382" xr:uid="{00000000-0004-0000-0000-000087010000}"/>
+    <hyperlink ref="B193" r:id="rId383" xr:uid="{00000000-0004-0000-0000-000088010000}"/>
+    <hyperlink ref="C193" r:id="rId384" xr:uid="{00000000-0004-0000-0000-000089010000}"/>
+    <hyperlink ref="B194" r:id="rId385" xr:uid="{00000000-0004-0000-0000-00008A010000}"/>
+    <hyperlink ref="C194" r:id="rId386" xr:uid="{00000000-0004-0000-0000-00008B010000}"/>
+    <hyperlink ref="B195" r:id="rId387" xr:uid="{00000000-0004-0000-0000-00008C010000}"/>
+    <hyperlink ref="C195" r:id="rId388" xr:uid="{00000000-0004-0000-0000-00008D010000}"/>
+    <hyperlink ref="B196" r:id="rId389" xr:uid="{00000000-0004-0000-0000-00008E010000}"/>
+    <hyperlink ref="C196" r:id="rId390" xr:uid="{00000000-0004-0000-0000-00008F010000}"/>
+    <hyperlink ref="B197" r:id="rId391" xr:uid="{00000000-0004-0000-0000-000090010000}"/>
+    <hyperlink ref="C197" r:id="rId392" xr:uid="{00000000-0004-0000-0000-000091010000}"/>
+    <hyperlink ref="B198" r:id="rId393" xr:uid="{00000000-0004-0000-0000-000092010000}"/>
+    <hyperlink ref="C198" r:id="rId394" xr:uid="{00000000-0004-0000-0000-000093010000}"/>
+    <hyperlink ref="B199" r:id="rId395" xr:uid="{00000000-0004-0000-0000-000094010000}"/>
+    <hyperlink ref="C199" r:id="rId396" xr:uid="{00000000-0004-0000-0000-000095010000}"/>
+    <hyperlink ref="B200" r:id="rId397" xr:uid="{00000000-0004-0000-0000-000096010000}"/>
+    <hyperlink ref="C200" r:id="rId398" xr:uid="{00000000-0004-0000-0000-000097010000}"/>
+    <hyperlink ref="B201" r:id="rId399" xr:uid="{00000000-0004-0000-0000-000098010000}"/>
+    <hyperlink ref="C201" r:id="rId400" xr:uid="{00000000-0004-0000-0000-000099010000}"/>
+    <hyperlink ref="B202" r:id="rId401" xr:uid="{00000000-0004-0000-0000-00009A010000}"/>
+    <hyperlink ref="C202" r:id="rId402" xr:uid="{00000000-0004-0000-0000-00009B010000}"/>
+    <hyperlink ref="B203" r:id="rId403" xr:uid="{00000000-0004-0000-0000-00009C010000}"/>
+    <hyperlink ref="C203" r:id="rId404" xr:uid="{00000000-0004-0000-0000-00009D010000}"/>
+    <hyperlink ref="B204" r:id="rId405" xr:uid="{00000000-0004-0000-0000-00009E010000}"/>
+    <hyperlink ref="C204" r:id="rId406" xr:uid="{00000000-0004-0000-0000-00009F010000}"/>
+    <hyperlink ref="B205" r:id="rId407" xr:uid="{00000000-0004-0000-0000-0000A0010000}"/>
+    <hyperlink ref="C205" r:id="rId408" xr:uid="{00000000-0004-0000-0000-0000A1010000}"/>
+    <hyperlink ref="B206" r:id="rId409" xr:uid="{00000000-0004-0000-0000-0000A2010000}"/>
+    <hyperlink ref="C206" r:id="rId410" xr:uid="{00000000-0004-0000-0000-0000A3010000}"/>
+    <hyperlink ref="B207" r:id="rId411" xr:uid="{00000000-0004-0000-0000-0000A4010000}"/>
+    <hyperlink ref="C207" r:id="rId412" xr:uid="{00000000-0004-0000-0000-0000A5010000}"/>
+    <hyperlink ref="B208" r:id="rId413" xr:uid="{00000000-0004-0000-0000-0000A6010000}"/>
+    <hyperlink ref="C208" r:id="rId414" xr:uid="{00000000-0004-0000-0000-0000A7010000}"/>
+    <hyperlink ref="B209" r:id="rId415" xr:uid="{00000000-0004-0000-0000-0000A8010000}"/>
+    <hyperlink ref="C209" r:id="rId416" xr:uid="{00000000-0004-0000-0000-0000A9010000}"/>
+    <hyperlink ref="B210" r:id="rId417" xr:uid="{00000000-0004-0000-0000-0000AA010000}"/>
+    <hyperlink ref="C210" r:id="rId418" xr:uid="{00000000-0004-0000-0000-0000AB010000}"/>
+    <hyperlink ref="B211" r:id="rId419" xr:uid="{00000000-0004-0000-0000-0000AC010000}"/>
+    <hyperlink ref="C211" r:id="rId420" xr:uid="{00000000-0004-0000-0000-0000AD010000}"/>
+    <hyperlink ref="B212" r:id="rId421" xr:uid="{00000000-0004-0000-0000-0000AE010000}"/>
+    <hyperlink ref="C212" r:id="rId422" xr:uid="{00000000-0004-0000-0000-0000AF010000}"/>
+    <hyperlink ref="B213" r:id="rId423" xr:uid="{00000000-0004-0000-0000-0000B2010000}"/>
+    <hyperlink ref="C213" r:id="rId424" xr:uid="{00000000-0004-0000-0000-0000B3010000}"/>
+    <hyperlink ref="B214" r:id="rId425" xr:uid="{00000000-0004-0000-0000-0000B4010000}"/>
+    <hyperlink ref="C214" r:id="rId426" xr:uid="{00000000-0004-0000-0000-0000B5010000}"/>
+    <hyperlink ref="B215" r:id="rId427" xr:uid="{00000000-0004-0000-0000-0000B6010000}"/>
+    <hyperlink ref="C215" r:id="rId428" xr:uid="{00000000-0004-0000-0000-0000B7010000}"/>
+    <hyperlink ref="B216" r:id="rId429" xr:uid="{00000000-0004-0000-0000-0000B8010000}"/>
+    <hyperlink ref="C216" r:id="rId430" xr:uid="{00000000-0004-0000-0000-0000B9010000}"/>
+    <hyperlink ref="B217" r:id="rId431" xr:uid="{00000000-0004-0000-0000-0000BA010000}"/>
+    <hyperlink ref="C217" r:id="rId432" xr:uid="{00000000-0004-0000-0000-0000BB010000}"/>
+    <hyperlink ref="B218" r:id="rId433" xr:uid="{00000000-0004-0000-0000-0000BC010000}"/>
+    <hyperlink ref="C218" r:id="rId434" xr:uid="{00000000-0004-0000-0000-0000BD010000}"/>
+    <hyperlink ref="B219" r:id="rId435" xr:uid="{00000000-0004-0000-0000-0000BE010000}"/>
+    <hyperlink ref="C219" r:id="rId436" xr:uid="{00000000-0004-0000-0000-0000BF010000}"/>
+    <hyperlink ref="B220" r:id="rId437" xr:uid="{00000000-0004-0000-0000-0000C0010000}"/>
+    <hyperlink ref="C220" r:id="rId438" xr:uid="{00000000-0004-0000-0000-0000C1010000}"/>
+    <hyperlink ref="B221" r:id="rId439" xr:uid="{00000000-0004-0000-0000-0000C2010000}"/>
+    <hyperlink ref="C221" r:id="rId440" xr:uid="{00000000-0004-0000-0000-0000C3010000}"/>
+    <hyperlink ref="B222" r:id="rId441" xr:uid="{00000000-0004-0000-0000-0000C4010000}"/>
+    <hyperlink ref="C222" r:id="rId442" xr:uid="{00000000-0004-0000-0000-0000C5010000}"/>
+    <hyperlink ref="B223" r:id="rId443" xr:uid="{00000000-0004-0000-0000-0000C6010000}"/>
+    <hyperlink ref="C223" r:id="rId444" xr:uid="{00000000-0004-0000-0000-0000C7010000}"/>
+    <hyperlink ref="B224" r:id="rId445" xr:uid="{00000000-0004-0000-0000-0000C8010000}"/>
+    <hyperlink ref="C224" r:id="rId446" xr:uid="{00000000-0004-0000-0000-0000C9010000}"/>
+    <hyperlink ref="B225" r:id="rId447" xr:uid="{00000000-0004-0000-0000-0000CA010000}"/>
+    <hyperlink ref="C225" r:id="rId448" xr:uid="{00000000-0004-0000-0000-0000CB010000}"/>
+    <hyperlink ref="B226" r:id="rId449" xr:uid="{00000000-0004-0000-0000-0000CC010000}"/>
+    <hyperlink ref="C226" r:id="rId450" xr:uid="{00000000-0004-0000-0000-0000CD010000}"/>
+    <hyperlink ref="B227" r:id="rId451" xr:uid="{00000000-0004-0000-0000-0000CE010000}"/>
+    <hyperlink ref="C227" r:id="rId452" xr:uid="{00000000-0004-0000-0000-0000CF010000}"/>
+    <hyperlink ref="B228" r:id="rId453" xr:uid="{00000000-0004-0000-0000-0000D0010000}"/>
+    <hyperlink ref="C228" r:id="rId454" xr:uid="{00000000-0004-0000-0000-0000D1010000}"/>
+    <hyperlink ref="B229" r:id="rId455" xr:uid="{00000000-0004-0000-0000-0000D2010000}"/>
+    <hyperlink ref="C229" r:id="rId456" xr:uid="{00000000-0004-0000-0000-0000D3010000}"/>
+    <hyperlink ref="B230" r:id="rId457" xr:uid="{00000000-0004-0000-0000-0000D4010000}"/>
+    <hyperlink ref="C230" r:id="rId458" xr:uid="{00000000-0004-0000-0000-0000D5010000}"/>
+    <hyperlink ref="B231" r:id="rId459" xr:uid="{00000000-0004-0000-0000-0000D6010000}"/>
+    <hyperlink ref="C231" r:id="rId460" xr:uid="{00000000-0004-0000-0000-0000D7010000}"/>
+    <hyperlink ref="B232" r:id="rId461" xr:uid="{00000000-0004-0000-0000-0000D8010000}"/>
+    <hyperlink ref="C232" r:id="rId462" xr:uid="{00000000-0004-0000-0000-0000D9010000}"/>
+    <hyperlink ref="B233" r:id="rId463" xr:uid="{00000000-0004-0000-0000-0000DA010000}"/>
+    <hyperlink ref="C233" r:id="rId464" xr:uid="{00000000-0004-0000-0000-0000DB010000}"/>
+    <hyperlink ref="B234" r:id="rId465" xr:uid="{00000000-0004-0000-0000-0000DC010000}"/>
+    <hyperlink ref="C234" r:id="rId466" xr:uid="{00000000-0004-0000-0000-0000DD010000}"/>
+    <hyperlink ref="B235" r:id="rId467" xr:uid="{00000000-0004-0000-0000-0000DE010000}"/>
+    <hyperlink ref="C235" r:id="rId468" xr:uid="{00000000-0004-0000-0000-0000DF010000}"/>
+    <hyperlink ref="B236" r:id="rId469" xr:uid="{00000000-0004-0000-0000-0000E0010000}"/>
+    <hyperlink ref="C236" r:id="rId470" xr:uid="{00000000-0004-0000-0000-0000E1010000}"/>
+    <hyperlink ref="B237" r:id="rId471" xr:uid="{00000000-0004-0000-0000-0000E2010000}"/>
+    <hyperlink ref="C237" r:id="rId472" xr:uid="{00000000-0004-0000-0000-0000E3010000}"/>
+    <hyperlink ref="B238" r:id="rId473" xr:uid="{00000000-0004-0000-0000-0000E4010000}"/>
+    <hyperlink ref="C238" r:id="rId474" xr:uid="{00000000-0004-0000-0000-0000E5010000}"/>
+    <hyperlink ref="B239" r:id="rId475" xr:uid="{00000000-0004-0000-0000-0000E6010000}"/>
+    <hyperlink ref="C239" r:id="rId476" xr:uid="{00000000-0004-0000-0000-0000E7010000}"/>
+    <hyperlink ref="B240" r:id="rId477" xr:uid="{00000000-0004-0000-0000-0000E8010000}"/>
+    <hyperlink ref="C240" r:id="rId478" xr:uid="{00000000-0004-0000-0000-0000E9010000}"/>
+    <hyperlink ref="B241" r:id="rId479" xr:uid="{00000000-0004-0000-0000-0000EA010000}"/>
+    <hyperlink ref="C241" r:id="rId480" xr:uid="{00000000-0004-0000-0000-0000EB010000}"/>
+    <hyperlink ref="B242" r:id="rId481" xr:uid="{00000000-0004-0000-0000-0000EC010000}"/>
+    <hyperlink ref="C242" r:id="rId482" xr:uid="{00000000-0004-0000-0000-0000ED010000}"/>
+    <hyperlink ref="B243" r:id="rId483" xr:uid="{00000000-0004-0000-0000-0000EE010000}"/>
+    <hyperlink ref="C243" r:id="rId484" xr:uid="{00000000-0004-0000-0000-0000EF010000}"/>
+    <hyperlink ref="B244" r:id="rId485" xr:uid="{00000000-0004-0000-0000-0000F0010000}"/>
+    <hyperlink ref="C244" r:id="rId486" xr:uid="{00000000-0004-0000-0000-0000F1010000}"/>
+    <hyperlink ref="B245" r:id="rId487" xr:uid="{00000000-0004-0000-0000-0000F4010000}"/>
+    <hyperlink ref="C245" r:id="rId488" xr:uid="{00000000-0004-0000-0000-0000F5010000}"/>
+    <hyperlink ref="B246" r:id="rId489" xr:uid="{00000000-0004-0000-0000-0000F6010000}"/>
+    <hyperlink ref="C246" r:id="rId490" xr:uid="{00000000-0004-0000-0000-0000F7010000}"/>
+    <hyperlink ref="B247" r:id="rId491" xr:uid="{00000000-0004-0000-0000-0000F8010000}"/>
+    <hyperlink ref="C247" r:id="rId492" xr:uid="{00000000-0004-0000-0000-0000F9010000}"/>
+    <hyperlink ref="B248" r:id="rId493" xr:uid="{00000000-0004-0000-0000-0000FA010000}"/>
+    <hyperlink ref="C248" r:id="rId494" xr:uid="{00000000-0004-0000-0000-0000FB010000}"/>
+    <hyperlink ref="B249" r:id="rId495" xr:uid="{00000000-0004-0000-0000-0000FC010000}"/>
+    <hyperlink ref="C249" r:id="rId496" xr:uid="{00000000-0004-0000-0000-0000FD010000}"/>
+    <hyperlink ref="B250" r:id="rId497" xr:uid="{00000000-0004-0000-0000-0000FE010000}"/>
+    <hyperlink ref="C250" r:id="rId498" xr:uid="{00000000-0004-0000-0000-0000FF010000}"/>
+    <hyperlink ref="B251" r:id="rId499" xr:uid="{00000000-0004-0000-0000-000000020000}"/>
+    <hyperlink ref="C251" r:id="rId500" xr:uid="{00000000-0004-0000-0000-000001020000}"/>
+    <hyperlink ref="B252" r:id="rId501" xr:uid="{00000000-0004-0000-0000-000004020000}"/>
+    <hyperlink ref="C252" r:id="rId502" xr:uid="{00000000-0004-0000-0000-000005020000}"/>
+    <hyperlink ref="B253" r:id="rId503" xr:uid="{00000000-0004-0000-0000-000006020000}"/>
+    <hyperlink ref="C253" r:id="rId504" xr:uid="{00000000-0004-0000-0000-000007020000}"/>
+    <hyperlink ref="B254" r:id="rId505" xr:uid="{00000000-0004-0000-0000-000008020000}"/>
+    <hyperlink ref="C254" r:id="rId506" xr:uid="{00000000-0004-0000-0000-000009020000}"/>
+    <hyperlink ref="B255" r:id="rId507" xr:uid="{00000000-0004-0000-0000-00000A020000}"/>
+    <hyperlink ref="C255" r:id="rId508" xr:uid="{00000000-0004-0000-0000-00000B020000}"/>
+    <hyperlink ref="B256" r:id="rId509" xr:uid="{00000000-0004-0000-0000-00000C020000}"/>
+    <hyperlink ref="C256" r:id="rId510" xr:uid="{00000000-0004-0000-0000-00000D020000}"/>
+    <hyperlink ref="B257" r:id="rId511" xr:uid="{00000000-0004-0000-0000-00000E020000}"/>
+    <hyperlink ref="C257" r:id="rId512" xr:uid="{00000000-0004-0000-0000-00000F020000}"/>
+    <hyperlink ref="B258" r:id="rId513" xr:uid="{00000000-0004-0000-0000-000010020000}"/>
+    <hyperlink ref="C258" r:id="rId514" xr:uid="{00000000-0004-0000-0000-000011020000}"/>
+    <hyperlink ref="B259" r:id="rId515" xr:uid="{00000000-0004-0000-0000-000012020000}"/>
+    <hyperlink ref="C259" r:id="rId516" xr:uid="{00000000-0004-0000-0000-000013020000}"/>
+    <hyperlink ref="B260" r:id="rId517" xr:uid="{00000000-0004-0000-0000-000014020000}"/>
+    <hyperlink ref="C260" r:id="rId518" xr:uid="{00000000-0004-0000-0000-000015020000}"/>
+    <hyperlink ref="B261" r:id="rId519" xr:uid="{00000000-0004-0000-0000-000016020000}"/>
+    <hyperlink ref="C261" r:id="rId520" xr:uid="{00000000-0004-0000-0000-000017020000}"/>
+    <hyperlink ref="B262" r:id="rId521" xr:uid="{00000000-0004-0000-0000-000018020000}"/>
+    <hyperlink ref="C262" r:id="rId522" xr:uid="{00000000-0004-0000-0000-000019020000}"/>
+    <hyperlink ref="B263" r:id="rId523" xr:uid="{55FA512C-C843-4915-85F7-06B366A78B41}"/>
+    <hyperlink ref="C263" r:id="rId524" xr:uid="{FD7BE261-6A6F-4511-8D4C-EE63DF72BBE6}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId527"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId525"/>
 </worksheet>
 </file>